--- a/User/user_reviews.xlsx
+++ b/User/user_reviews.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Tyler-Sarry_LocalGuide·Level8" sheetId="1" r:id="rId1"/>
+    <sheet name="Katrina-McLe_8contributions" sheetId="2" r:id="rId2"/>
+    <sheet name="Mike-Dickey_128contributions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1476">
   <si>
     <t>title</t>
   </si>
@@ -4169,6 +4171,279 @@
   </si>
   <si>
     <t>3 years ago</t>
+  </si>
+  <si>
+    <t>Days Inn by Wyndham Renfrew Conference Centre</t>
+  </si>
+  <si>
+    <t>Ali's Grill and Bar</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express &amp; Suites New Liskeard</t>
+  </si>
+  <si>
+    <t>Rock Pine Motel &amp; Restaurant</t>
+  </si>
+  <si>
+    <t>Temagami Shores Inn and Resort</t>
+  </si>
+  <si>
+    <t>CIBC Branch with ATM</t>
+  </si>
+  <si>
+    <t>Le provençal knights Corner</t>
+  </si>
+  <si>
+    <t>760 Gibbons Rd, Renfrew, ON K7V 0B7, Canada</t>
+  </si>
+  <si>
+    <t>998006 ON-11, Temiskaming Shores, ON P0J 1P0, Canada</t>
+  </si>
+  <si>
+    <t>998029 Highway #11, Temiskaming Shores, ON P0J 1P0, Canada</t>
+  </si>
+  <si>
+    <t>2372 ON-11, Marten River, ON P0H 1T0, Canada</t>
+  </si>
+  <si>
+    <t>6612 ON-11, Temagami, ON P0H 2H0, Canada</t>
+  </si>
+  <si>
+    <t>1895 Glenanna Rd, Pickering, ON L1V 7K1, Canada</t>
+  </si>
+  <si>
+    <t>605 Kingston Rd, Pickering, ON L1V 3N7, Canada</t>
+  </si>
+  <si>
+    <t>Room was not up to standards, found weed stems on the floor and the bedding looked as if it was not cleaned properly.  Front desk staff was polite and friendly.</t>
+  </si>
+  <si>
+    <t>Front desk staff was so welcoming, room was impeccable and service was nothing but the best</t>
+  </si>
+  <si>
+    <t>Hospitality and service was amazing and the food was nothing short of delicious and good size portions, pricing was fairly reasonable as well</t>
+  </si>
+  <si>
+    <t>Stayed her on our snowmobiling trip, rooms were very clean and comfortable, and the staff was very friendly and helpful, and breakfast was great, will definitely stay here again when we come back up next year and it was located right on the snowmobile trail</t>
+  </si>
+  <si>
+    <t>We stopped in twice on our snowmobiling trip for lunch and had amazing hospitality both times...the homemade soup is delicious and hot chocolate was nothing short of great...will definitely been a stop on next years trip...the owners were so friendly and gave nothing but a great conversation</t>
+  </si>
+  <si>
+    <t>Stayed her for a snowmobiling trip, located right on the trail and close to a gas station...the staff was amazing and friendly and polite, the rooms were beyond what we expected...so clean and spacious and comfortable...the food was absolutely incredible, definitely exceeded any expectations you could possibly have...prices were reasonable aswell...this place is definitely a hidden gem and we will be coming back for sure on our trip next year</t>
+  </si>
+  <si>
+    <t>This location must be the slowest...the staff does not acknowledge you or even let you know that it will be a few more minutes of a wait...they never have more then two tellers on and I was in line for over 25mins.  They really need to have less staff wandering around and more staff helping customers.</t>
+  </si>
+  <si>
+    <t>Nice place and nice staff and food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Response from the owner  a day ago  Hi Katrina,  Thank you very much for taking the time to review your recent lodging experience at our facility. We greatly appreciate your positive feedback regarding our front desk staff quality. On the other hand, please accept our sincerest apologies for failing to meet your expectations with respect to room cleanliness. Your input, along with additional training, have been provided to the housekeeping department such room standards can be improved promptly. We thank you again for your patronage and we will work hard towards addressing the concerns raised to better serve you in the future.  Jenny  </t>
+  </si>
+  <si>
+    <t>Grand Valley Park</t>
+  </si>
+  <si>
+    <t>Baycliffe Park</t>
+  </si>
+  <si>
+    <t>Audley Recreation Centre</t>
+  </si>
+  <si>
+    <t>The Bentway</t>
+  </si>
+  <si>
+    <t>Fallbrook Trail Ranch</t>
+  </si>
+  <si>
+    <t>Drums N Flats</t>
+  </si>
+  <si>
+    <t>Chutes Provincial Park</t>
+  </si>
+  <si>
+    <t>Canada Computers &amp; Electronics</t>
+  </si>
+  <si>
+    <t>Screaming Heads</t>
+  </si>
+  <si>
+    <t>Thieving Bear Lake</t>
+  </si>
+  <si>
+    <t>SmartCentres Pickering</t>
+  </si>
+  <si>
+    <t>Toronto Zoo Foundation</t>
+  </si>
+  <si>
+    <t>Big M</t>
+  </si>
+  <si>
+    <t>Rouge River Park</t>
+  </si>
+  <si>
+    <t>Lamanna's Bakery</t>
+  </si>
+  <si>
+    <t>Pasta Tutti Giorni</t>
+  </si>
+  <si>
+    <t>Altona Forest</t>
+  </si>
+  <si>
+    <t>New Post Falls</t>
+  </si>
+  <si>
+    <t>Riviera Barber Shop</t>
+  </si>
+  <si>
+    <t>Balsam Lake Provincial Park</t>
+  </si>
+  <si>
+    <t>Sky Zone Trampoline Park</t>
+  </si>
+  <si>
+    <t>Fairfield Inn &amp; Suites by Marriott Toronto Brampton</t>
+  </si>
+  <si>
+    <t>Los Cabos Cantina &amp; Grill</t>
+  </si>
+  <si>
+    <t>Pickering, ON, Canada</t>
+  </si>
+  <si>
+    <t>St Philip Ct, Whitby, ON L1P 1W8, Canada</t>
+  </si>
+  <si>
+    <t>1955 Audley Rd, Ajax, ON L1Z 0L2, Canada</t>
+  </si>
+  <si>
+    <t>250 Fort York Blvd, Toronto, ON M5V 3K9, Canada</t>
+  </si>
+  <si>
+    <t>14097 9 Line, Georgetown, ON L7G 4S8, Canada</t>
+  </si>
+  <si>
+    <t>60 Randall Drive Unit 6 Lower level, Ajax, ON L1S 6L3, Canada</t>
+  </si>
+  <si>
+    <t>650 Imperial St N, Massey, ON P0P 1P0, Canada</t>
+  </si>
+  <si>
+    <t>15 Westney Rd N Unit #17B, Ajax, ON L1T 1P5, Canada</t>
+  </si>
+  <si>
+    <t>925-1201 Midlothian Rd, Burk's Falls, ON P0A 1C0, Canada</t>
+  </si>
+  <si>
+    <t>Temagami, ON, Canada</t>
+  </si>
+  <si>
+    <t>1899 Brock Rd, Pickering, ON L1V 4H7, Canada</t>
+  </si>
+  <si>
+    <t>361A Old Finch Ave, Scarborough, ON M1B 5K7, Canada</t>
+  </si>
+  <si>
+    <t>711 Krosno Blvd, Pickering, ON L1W 1S1, Canada</t>
+  </si>
+  <si>
+    <t>Unnamed Road, Scarborough, ON M1B, Canada, Canada</t>
+  </si>
+  <si>
+    <t>6758 Kingston Rd, Scarborough, ON M1B 1G8, Canada</t>
+  </si>
+  <si>
+    <t>98 Island Rd Unit C, Scarborough, ON M1C 2P5, Canada</t>
+  </si>
+  <si>
+    <t>1883 Altona Rd, Pickering, ON L1V 7B1, Canada</t>
+  </si>
+  <si>
+    <t>Unorganized North Cochrane District, ON, Canada</t>
+  </si>
+  <si>
+    <t>305 Port Union Rd, Scarborough, ON M1C 2L5, Canada</t>
+  </si>
+  <si>
+    <t>B4 Beaver Ave, Beaverton, ON L0K 1A0, Canada</t>
+  </si>
+  <si>
+    <t>2238 Kawartha Lakes County Rd 48, Kirkfield, ON K0M 2B0, Canada</t>
+  </si>
+  <si>
+    <t>240 S Blair St Unit-3, Whitby, ON L1N 0G3, Canada</t>
+  </si>
+  <si>
+    <t>150 Westcreek Blvd, Brampton, ON L6T 5V7, Canada</t>
+  </si>
+  <si>
+    <t>1009 Dundas St E, Whitby, ON L1N 2K2, Canada</t>
+  </si>
+  <si>
+    <t>Great dog park</t>
+  </si>
+  <si>
+    <t>Awesome place, friendly staff</t>
+  </si>
+  <si>
+    <t>Great time.</t>
+  </si>
+  <si>
+    <t>Worst experience ever. Wanted them to build a pc for my son. Simple right? Not so quick. They said it would take 1 week. They blew a power supply that they won't take responsibility for. $306. First representative didn't seem to know what he was doing. He had it for a month and when question why answered with " I dont know" Second representative was more knowledgeable but it took an instore visit to get them to understand that having someone's work pc in these times for longer than a month in unacceptable, but guess what... more phone calls were required to pressure them to actually finnish it. Date dropped off August 5 pick up date September 8. No apologies or compensations. Next time I'll look for the guy who does this out of the back of his truck. I'm sure I will get better customer service. Canada computer- Never again.</t>
+  </si>
+  <si>
+    <t>Great way to spend an afternoon.</t>
+  </si>
+  <si>
+    <t>Closed for years</t>
+  </si>
+  <si>
+    <t>Fun time</t>
+  </si>
+  <si>
+    <t>Awesome burgers</t>
+  </si>
+  <si>
+    <t>The skating trail is amazing, go early.</t>
+  </si>
+  <si>
+    <t>Food is always great, quiet place with friendly staff. Local small business we should support.</t>
+  </si>
+  <si>
+    <t>It was totally secluded and the views were amazing. Camped there for 5 nights. Great  northern lights</t>
+  </si>
+  <si>
+    <t>Emila is the best.</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Great swimming area with lots of small kayaks to rent for the kids.</t>
+  </si>
+  <si>
+    <t>My 10 year old daughter had a summer pass and loved going all the time. 0 screen time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Response from the owner  2 months ago  Hi Mike, thank you for the positive review and we look forward to seeing you again soon!  </t>
+  </si>
+  <si>
+    <t>3 days ago</t>
+  </si>
+  <si>
+    <t>4 days ago</t>
+  </si>
+  <si>
+    <t>a week ago</t>
+  </si>
+  <si>
+    <t>a month ago</t>
+  </si>
+  <si>
+    <t>3 months ago</t>
   </si>
 </sst>
 </file>
@@ -4582,10 +4857,10 @@
         <v>1373</v>
       </c>
       <c r="H2" s="2">
-        <v>44252.94597398298</v>
+        <v>44252.95611689775</v>
       </c>
       <c r="I2" s="2">
-        <v>44252.11263888889</v>
+        <v>44252.12277777777</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4608,10 +4883,10 @@
         <v>1374</v>
       </c>
       <c r="H3" s="2">
-        <v>44252.94597402914</v>
+        <v>44252.95611693282</v>
       </c>
       <c r="I3" s="2">
-        <v>44251.94597222222</v>
+        <v>44251.95611111111</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4631,10 +4906,10 @@
         <v>1374</v>
       </c>
       <c r="H4" s="2">
-        <v>44252.94597406378</v>
+        <v>44252.95611697871</v>
       </c>
       <c r="I4" s="2">
-        <v>44251.94597222222</v>
+        <v>44251.95611111111</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4657,10 +4932,10 @@
         <v>1375</v>
       </c>
       <c r="H5" s="2">
-        <v>44252.94597410996</v>
+        <v>44252.95611703632</v>
       </c>
       <c r="I5" s="2">
-        <v>44250.94597222222</v>
+        <v>44250.95611111111</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4680,10 +4955,10 @@
         <v>1376</v>
       </c>
       <c r="H6" s="2">
-        <v>44252.94597414458</v>
+        <v>44252.95611708253</v>
       </c>
       <c r="I6" s="2">
-        <v>44190.94597222222</v>
+        <v>44190.95611111111</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4703,10 +4978,10 @@
         <v>1377</v>
       </c>
       <c r="H7" s="2">
-        <v>44252.9459741792</v>
+        <v>44252.95611711709</v>
       </c>
       <c r="I7" s="2">
-        <v>44129.94597222222</v>
+        <v>44129.95611111111</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4729,10 +5004,10 @@
         <v>1378</v>
       </c>
       <c r="H8" s="2">
-        <v>44252.94597421383</v>
+        <v>44252.95611716325</v>
       </c>
       <c r="I8" s="2">
-        <v>44099.94597222222</v>
+        <v>44099.95611111111</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4752,10 +5027,10 @@
         <v>1378</v>
       </c>
       <c r="H9" s="2">
-        <v>44252.94597424846</v>
+        <v>44252.95611719789</v>
       </c>
       <c r="I9" s="2">
-        <v>44099.94597222222</v>
+        <v>44099.95611111111</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4778,10 +5053,10 @@
         <v>1378</v>
       </c>
       <c r="H10" s="2">
-        <v>44252.94597428309</v>
+        <v>44252.95611723294</v>
       </c>
       <c r="I10" s="2">
-        <v>44099.94597222222</v>
+        <v>44099.95611111111</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4804,10 +5079,10 @@
         <v>1379</v>
       </c>
       <c r="H11" s="2">
-        <v>44252.94597431772</v>
+        <v>44252.9561172676</v>
       </c>
       <c r="I11" s="2">
-        <v>44068.94597222222</v>
+        <v>44068.95611111111</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4830,10 +5105,10 @@
         <v>1380</v>
       </c>
       <c r="H12" s="2">
-        <v>44252.94597435235</v>
+        <v>44252.95611730177</v>
       </c>
       <c r="I12" s="2">
-        <v>44037.94597222222</v>
+        <v>44037.95611111111</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4853,10 +5128,10 @@
         <v>1381</v>
       </c>
       <c r="H13" s="2">
-        <v>44252.94597438698</v>
+        <v>44252.95611733678</v>
       </c>
       <c r="I13" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4879,10 +5154,10 @@
         <v>1381</v>
       </c>
       <c r="H14" s="2">
-        <v>44252.94597442161</v>
+        <v>44252.95611737142</v>
       </c>
       <c r="I14" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4905,10 +5180,10 @@
         <v>1381</v>
       </c>
       <c r="H15" s="2">
-        <v>44252.94597445624</v>
+        <v>44252.95611740604</v>
       </c>
       <c r="I15" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4931,10 +5206,10 @@
         <v>1381</v>
       </c>
       <c r="H16" s="2">
-        <v>44252.94597449087</v>
+        <v>44252.95611745222</v>
       </c>
       <c r="I16" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4957,10 +5232,10 @@
         <v>1381</v>
       </c>
       <c r="H17" s="2">
-        <v>44252.94597452553</v>
+        <v>44252.9561174869</v>
       </c>
       <c r="I17" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4983,10 +5258,10 @@
         <v>1381</v>
       </c>
       <c r="H18" s="2">
-        <v>44252.94597456013</v>
+        <v>44252.95611752153</v>
       </c>
       <c r="I18" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5009,10 +5284,10 @@
         <v>1381</v>
       </c>
       <c r="H19" s="2">
-        <v>44252.94597461785</v>
+        <v>44252.95611756727</v>
       </c>
       <c r="I19" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5032,10 +5307,10 @@
         <v>1381</v>
       </c>
       <c r="H20" s="2">
-        <v>44252.94597465247</v>
+        <v>44252.9561176139</v>
       </c>
       <c r="I20" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5058,10 +5333,10 @@
         <v>1381</v>
       </c>
       <c r="H21" s="2">
-        <v>44252.9459746987</v>
+        <v>44252.95611763697</v>
       </c>
       <c r="I21" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5081,10 +5356,10 @@
         <v>1381</v>
       </c>
       <c r="H22" s="2">
-        <v>44252.94597473327</v>
+        <v>44252.95611768271</v>
       </c>
       <c r="I22" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5104,10 +5379,10 @@
         <v>1381</v>
       </c>
       <c r="H23" s="2">
-        <v>44252.94597477945</v>
+        <v>44252.95611772931</v>
       </c>
       <c r="I23" s="2">
-        <v>43915.94597222222</v>
+        <v>43915.95611111111</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5127,10 +5402,10 @@
         <v>1382</v>
       </c>
       <c r="H24" s="2">
-        <v>44252.94597481407</v>
+        <v>44252.95611776393</v>
       </c>
       <c r="I24" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5150,10 +5425,10 @@
         <v>1382</v>
       </c>
       <c r="H25" s="2">
-        <v>44252.94597484871</v>
+        <v>44252.95611781011</v>
       </c>
       <c r="I25" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5176,10 +5451,10 @@
         <v>1382</v>
       </c>
       <c r="H26" s="2">
-        <v>44252.94597488335</v>
+        <v>44252.95611784475</v>
       </c>
       <c r="I26" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5199,10 +5474,10 @@
         <v>1382</v>
       </c>
       <c r="H27" s="2">
-        <v>44252.94597490643</v>
+        <v>44252.95611787941</v>
       </c>
       <c r="I27" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5225,10 +5500,10 @@
         <v>1382</v>
       </c>
       <c r="H28" s="2">
-        <v>44252.94597495261</v>
+        <v>44252.95611791356</v>
       </c>
       <c r="I28" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5248,10 +5523,10 @@
         <v>1382</v>
       </c>
       <c r="H29" s="2">
-        <v>44252.94597497569</v>
+        <v>44252.95611794858</v>
       </c>
       <c r="I29" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5271,10 +5546,10 @@
         <v>1382</v>
       </c>
       <c r="H30" s="2">
-        <v>44252.94597501031</v>
+        <v>44252.95611799436</v>
       </c>
       <c r="I30" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5297,10 +5572,10 @@
         <v>1382</v>
       </c>
       <c r="H31" s="2">
-        <v>44252.94597505649</v>
+        <v>44252.956118029</v>
       </c>
       <c r="I31" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5323,10 +5598,10 @@
         <v>1382</v>
       </c>
       <c r="H32" s="2">
-        <v>44252.94597509111</v>
+        <v>44252.95611807559</v>
       </c>
       <c r="I32" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5346,10 +5621,10 @@
         <v>1382</v>
       </c>
       <c r="H33" s="2">
-        <v>44252.94597512575</v>
+        <v>44252.95611811021</v>
       </c>
       <c r="I33" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5372,10 +5647,10 @@
         <v>1382</v>
       </c>
       <c r="H34" s="2">
-        <v>44252.94597516037</v>
+        <v>44252.95611814484</v>
       </c>
       <c r="I34" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5398,10 +5673,10 @@
         <v>1382</v>
       </c>
       <c r="H35" s="2">
-        <v>44252.94597519501</v>
+        <v>44252.95611819104</v>
       </c>
       <c r="I35" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -5424,10 +5699,10 @@
         <v>1382</v>
       </c>
       <c r="H36" s="2">
-        <v>44252.94597522963</v>
+        <v>44252.95611822567</v>
       </c>
       <c r="I36" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -5447,10 +5722,10 @@
         <v>1382</v>
       </c>
       <c r="H37" s="2">
-        <v>44252.94597526426</v>
+        <v>44252.95611827185</v>
       </c>
       <c r="I37" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5470,10 +5745,10 @@
         <v>1382</v>
       </c>
       <c r="H38" s="2">
-        <v>44252.94597529889</v>
+        <v>44252.95611830652</v>
       </c>
       <c r="I38" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5496,10 +5771,10 @@
         <v>1382</v>
       </c>
       <c r="H39" s="2">
-        <v>44252.94597532198</v>
+        <v>44252.95611834114</v>
       </c>
       <c r="I39" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5522,10 +5797,10 @@
         <v>1382</v>
       </c>
       <c r="H40" s="2">
-        <v>44252.94597541477</v>
+        <v>44252.95611838718</v>
       </c>
       <c r="I40" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5548,10 +5823,10 @@
         <v>1382</v>
       </c>
       <c r="H41" s="2">
-        <v>44252.94597544939</v>
+        <v>44252.95611842191</v>
       </c>
       <c r="I41" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -5571,10 +5846,10 @@
         <v>1382</v>
       </c>
       <c r="H42" s="2">
-        <v>44252.94597548401</v>
+        <v>44252.95611844501</v>
       </c>
       <c r="I42" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -5594,10 +5869,10 @@
         <v>1382</v>
       </c>
       <c r="H43" s="2">
-        <v>44252.94597551863</v>
+        <v>44252.95611847965</v>
       </c>
       <c r="I43" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -5617,10 +5892,10 @@
         <v>1382</v>
       </c>
       <c r="H44" s="2">
-        <v>44252.94597555325</v>
+        <v>44252.95611851382</v>
       </c>
       <c r="I44" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -5643,10 +5918,10 @@
         <v>1382</v>
       </c>
       <c r="H45" s="2">
-        <v>44252.94597558799</v>
+        <v>44252.9561185719</v>
       </c>
       <c r="I45" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -5666,10 +5941,10 @@
         <v>1382</v>
       </c>
       <c r="H46" s="2">
-        <v>44252.94597562253</v>
+        <v>44252.95611861814</v>
       </c>
       <c r="I46" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -5689,10 +5964,10 @@
         <v>1382</v>
       </c>
       <c r="H47" s="2">
-        <v>44252.94597565715</v>
+        <v>44252.9561186528</v>
       </c>
       <c r="I47" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5712,10 +5987,10 @@
         <v>1382</v>
       </c>
       <c r="H48" s="2">
-        <v>44252.94597569181</v>
+        <v>44252.9561186874</v>
       </c>
       <c r="I48" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5735,10 +6010,10 @@
         <v>1382</v>
       </c>
       <c r="H49" s="2">
-        <v>44252.94597572643</v>
+        <v>44252.95611873338</v>
       </c>
       <c r="I49" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5758,10 +6033,10 @@
         <v>1382</v>
       </c>
       <c r="H50" s="2">
-        <v>44252.94597576107</v>
+        <v>44252.95611877969</v>
       </c>
       <c r="I50" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5781,10 +6056,10 @@
         <v>1382</v>
       </c>
       <c r="H51" s="2">
-        <v>44252.94597579572</v>
+        <v>44252.9561188255</v>
       </c>
       <c r="I51" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5804,10 +6079,10 @@
         <v>1382</v>
       </c>
       <c r="H52" s="2">
-        <v>44252.94597583033</v>
+        <v>44252.95611890661</v>
       </c>
       <c r="I52" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5827,10 +6102,10 @@
         <v>1382</v>
       </c>
       <c r="H53" s="2">
-        <v>44252.94597586495</v>
+        <v>44252.95611898709</v>
       </c>
       <c r="I53" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5853,10 +6128,10 @@
         <v>1382</v>
       </c>
       <c r="H54" s="2">
-        <v>44252.94597588808</v>
+        <v>44252.95611902215</v>
       </c>
       <c r="I54" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5879,10 +6154,10 @@
         <v>1382</v>
       </c>
       <c r="H55" s="2">
-        <v>44252.9459759227</v>
+        <v>44252.95611906788</v>
       </c>
       <c r="I55" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5905,10 +6180,10 @@
         <v>1382</v>
       </c>
       <c r="H56" s="2">
-        <v>44252.9459759684</v>
+        <v>44252.95611911451</v>
       </c>
       <c r="I56" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5931,10 +6206,10 @@
         <v>1382</v>
       </c>
       <c r="H57" s="2">
-        <v>44252.94597599194</v>
+        <v>44252.95611916066</v>
       </c>
       <c r="I57" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5957,10 +6232,10 @@
         <v>1382</v>
       </c>
       <c r="H58" s="2">
-        <v>44252.9459760266</v>
+        <v>44252.95611920659</v>
       </c>
       <c r="I58" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5983,10 +6258,10 @@
         <v>1382</v>
       </c>
       <c r="H59" s="2">
-        <v>44252.94597608439</v>
+        <v>44252.95611925297</v>
       </c>
       <c r="I59" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -6006,10 +6281,10 @@
         <v>1382</v>
       </c>
       <c r="H60" s="2">
-        <v>44252.94597611898</v>
+        <v>44252.95611929913</v>
       </c>
       <c r="I60" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -6032,10 +6307,10 @@
         <v>1382</v>
       </c>
       <c r="H61" s="2">
-        <v>44252.94597615313</v>
+        <v>44252.95611934522</v>
       </c>
       <c r="I61" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -6055,10 +6330,10 @@
         <v>1382</v>
       </c>
       <c r="H62" s="2">
-        <v>44252.94597618822</v>
+        <v>44252.95611939139</v>
       </c>
       <c r="I62" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -6081,10 +6356,10 @@
         <v>1382</v>
       </c>
       <c r="H63" s="2">
-        <v>44252.94597622288</v>
+        <v>44252.95611943728</v>
       </c>
       <c r="I63" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -6107,10 +6382,10 @@
         <v>1382</v>
       </c>
       <c r="H64" s="2">
-        <v>44252.94597625751</v>
+        <v>44252.95611948389</v>
       </c>
       <c r="I64" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -6133,10 +6408,10 @@
         <v>1382</v>
       </c>
       <c r="H65" s="2">
-        <v>44252.94597629213</v>
+        <v>44252.95611951806</v>
       </c>
       <c r="I65" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -6159,10 +6434,10 @@
         <v>1382</v>
       </c>
       <c r="H66" s="2">
-        <v>44252.94597631523</v>
+        <v>44252.9561195647</v>
       </c>
       <c r="I66" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -6185,10 +6460,10 @@
         <v>1382</v>
       </c>
       <c r="H67" s="2">
-        <v>44252.9459763614</v>
+        <v>44252.95611959935</v>
       </c>
       <c r="I67" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -6208,10 +6483,10 @@
         <v>1382</v>
       </c>
       <c r="H68" s="2">
-        <v>44252.94597639552</v>
+        <v>44252.95611964553</v>
       </c>
       <c r="I68" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -6231,10 +6506,10 @@
         <v>1382</v>
       </c>
       <c r="H69" s="2">
-        <v>44252.94597643064</v>
+        <v>44252.95611969168</v>
       </c>
       <c r="I69" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -6257,10 +6532,10 @@
         <v>1382</v>
       </c>
       <c r="H70" s="2">
-        <v>44252.94597645375</v>
+        <v>44252.9561197378</v>
       </c>
       <c r="I70" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -6283,10 +6558,10 @@
         <v>1382</v>
       </c>
       <c r="H71" s="2">
-        <v>44252.94597648836</v>
+        <v>44252.95611978358</v>
       </c>
       <c r="I71" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6309,10 +6584,10 @@
         <v>1382</v>
       </c>
       <c r="H72" s="2">
-        <v>44252.94597652298</v>
+        <v>44252.95611981867</v>
       </c>
       <c r="I72" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -6332,10 +6607,10 @@
         <v>1382</v>
       </c>
       <c r="H73" s="2">
-        <v>44252.94597655762</v>
+        <v>44252.95611984175</v>
       </c>
       <c r="I73" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -6358,10 +6633,10 @@
         <v>1382</v>
       </c>
       <c r="H74" s="2">
-        <v>44252.94597659227</v>
+        <v>44252.95611987614</v>
       </c>
       <c r="I74" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6384,10 +6659,10 @@
         <v>1382</v>
       </c>
       <c r="H75" s="2">
-        <v>44252.9459766268</v>
+        <v>44252.9561199225</v>
       </c>
       <c r="I75" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -6410,10 +6685,10 @@
         <v>1382</v>
       </c>
       <c r="H76" s="2">
-        <v>44252.9459766615</v>
+        <v>44252.95611995712</v>
       </c>
       <c r="I76" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -6433,10 +6708,10 @@
         <v>1382</v>
       </c>
       <c r="H77" s="2">
-        <v>44252.94597669614</v>
+        <v>44252.95611999174</v>
       </c>
       <c r="I77" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -6459,10 +6734,10 @@
         <v>1382</v>
       </c>
       <c r="H78" s="2">
-        <v>44252.94597673071</v>
+        <v>44252.95612003795</v>
       </c>
       <c r="I78" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -6485,10 +6760,10 @@
         <v>1382</v>
       </c>
       <c r="H79" s="2">
-        <v>44252.94597676545</v>
+        <v>44252.95612007258</v>
       </c>
       <c r="I79" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -6511,10 +6786,10 @@
         <v>1382</v>
       </c>
       <c r="H80" s="2">
-        <v>44252.94597680002</v>
+        <v>44252.95612012985</v>
       </c>
       <c r="I80" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -6537,10 +6812,10 @@
         <v>1382</v>
       </c>
       <c r="H81" s="2">
-        <v>44252.94597683466</v>
+        <v>44252.95612018796</v>
       </c>
       <c r="I81" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -6563,10 +6838,10 @@
         <v>1382</v>
       </c>
       <c r="H82" s="2">
-        <v>44252.94597686877</v>
+        <v>44252.95612022254</v>
       </c>
       <c r="I82" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -6589,10 +6864,10 @@
         <v>1382</v>
       </c>
       <c r="H83" s="2">
-        <v>44252.94597691494</v>
+        <v>44252.95612026881</v>
       </c>
       <c r="I83" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6615,10 +6890,10 @@
         <v>1382</v>
       </c>
       <c r="H84" s="2">
-        <v>44252.94597693843</v>
+        <v>44252.95612030344</v>
       </c>
       <c r="I84" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -6641,10 +6916,10 @@
         <v>1382</v>
       </c>
       <c r="H85" s="2">
-        <v>44252.94597698472</v>
+        <v>44252.95612033808</v>
       </c>
       <c r="I85" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6667,10 +6942,10 @@
         <v>1382</v>
       </c>
       <c r="H86" s="2">
-        <v>44252.94597701935</v>
+        <v>44252.9561203843</v>
       </c>
       <c r="I86" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -6693,10 +6968,10 @@
         <v>1382</v>
       </c>
       <c r="H87" s="2">
-        <v>44252.94597704244</v>
+        <v>44252.95612041886</v>
       </c>
       <c r="I87" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -6719,10 +6994,10 @@
         <v>1382</v>
       </c>
       <c r="H88" s="2">
-        <v>44252.94597708853</v>
+        <v>44252.95612045352</v>
       </c>
       <c r="I88" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -6742,10 +7017,10 @@
         <v>1382</v>
       </c>
       <c r="H89" s="2">
-        <v>44252.94597712324</v>
+        <v>44252.95612054542</v>
       </c>
       <c r="I89" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6765,10 +7040,10 @@
         <v>1382</v>
       </c>
       <c r="H90" s="2">
-        <v>44252.94597714634</v>
+        <v>44252.95612060313</v>
       </c>
       <c r="I90" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6791,10 +7066,10 @@
         <v>1382</v>
       </c>
       <c r="H91" s="2">
-        <v>44252.94597718097</v>
+        <v>44252.95612064941</v>
       </c>
       <c r="I91" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6817,10 +7092,10 @@
         <v>1382</v>
       </c>
       <c r="H92" s="2">
-        <v>44252.94597721559</v>
+        <v>44252.95612070706</v>
       </c>
       <c r="I92" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6843,10 +7118,10 @@
         <v>1382</v>
       </c>
       <c r="H93" s="2">
-        <v>44252.94597724982</v>
+        <v>44252.95612076474</v>
       </c>
       <c r="I93" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6869,10 +7144,10 @@
         <v>1382</v>
       </c>
       <c r="H94" s="2">
-        <v>44252.94597728486</v>
+        <v>44252.95612081123</v>
       </c>
       <c r="I94" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6892,10 +7167,10 @@
         <v>1382</v>
       </c>
       <c r="H95" s="2">
-        <v>44252.94597731942</v>
+        <v>44252.95612089219</v>
       </c>
       <c r="I95" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6918,10 +7193,10 @@
         <v>1382</v>
       </c>
       <c r="H96" s="2">
-        <v>44252.94597735411</v>
+        <v>44252.95612096104</v>
       </c>
       <c r="I96" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6944,10 +7219,10 @@
         <v>1382</v>
       </c>
       <c r="H97" s="2">
-        <v>44252.94597738874</v>
+        <v>44252.95612099605</v>
       </c>
       <c r="I97" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6970,10 +7245,10 @@
         <v>1382</v>
       </c>
       <c r="H98" s="2">
-        <v>44252.94597742337</v>
+        <v>44252.95612108839</v>
       </c>
       <c r="I98" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6993,10 +7268,10 @@
         <v>1382</v>
       </c>
       <c r="H99" s="2">
-        <v>44252.94597748105</v>
+        <v>44252.95612112297</v>
       </c>
       <c r="I99" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -7016,10 +7291,10 @@
         <v>1382</v>
       </c>
       <c r="H100" s="2">
-        <v>44252.94597751569</v>
+        <v>44252.9561212027</v>
       </c>
       <c r="I100" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -7042,10 +7317,10 @@
         <v>1382</v>
       </c>
       <c r="H101" s="2">
-        <v>44252.94597755035</v>
+        <v>44252.95612125992</v>
       </c>
       <c r="I101" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -7068,10 +7343,10 @@
         <v>1382</v>
       </c>
       <c r="H102" s="2">
-        <v>44252.94597758494</v>
+        <v>44252.95612130652</v>
       </c>
       <c r="I102" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -7094,10 +7369,10 @@
         <v>1382</v>
       </c>
       <c r="H103" s="2">
-        <v>44252.94597760802</v>
+        <v>44252.95612137533</v>
       </c>
       <c r="I103" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -7120,10 +7395,10 @@
         <v>1382</v>
       </c>
       <c r="H104" s="2">
-        <v>44252.94597765421</v>
+        <v>44252.95612142188</v>
       </c>
       <c r="I104" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -7146,10 +7421,10 @@
         <v>1382</v>
       </c>
       <c r="H105" s="2">
-        <v>44252.94597768887</v>
+        <v>44252.95612150231</v>
       </c>
       <c r="I105" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -7172,10 +7447,10 @@
         <v>1382</v>
       </c>
       <c r="H106" s="2">
-        <v>44252.94597772348</v>
+        <v>44252.9561215488</v>
       </c>
       <c r="I106" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -7195,10 +7470,10 @@
         <v>1382</v>
       </c>
       <c r="H107" s="2">
-        <v>44252.94597774657</v>
+        <v>44252.95612160662</v>
       </c>
       <c r="I107" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -7218,10 +7493,10 @@
         <v>1382</v>
       </c>
       <c r="H108" s="2">
-        <v>44252.9459777812</v>
+        <v>44252.95612167549</v>
       </c>
       <c r="I108" s="2">
-        <v>43886.94597222222</v>
+        <v>43886.95611111111</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -7244,10 +7519,10 @@
         <v>1382</v>
       </c>
       <c r="H109" s="2">
-        <v>44252.94616420633</v>
+        <v>44252.95631717888</v>
       </c>
       <c r="I109" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -7270,10 +7545,10 @@
         <v>1382</v>
       </c>
       <c r="H110" s="2">
-        <v>44252.9461642525</v>
+        <v>44252.95631721241</v>
       </c>
       <c r="I110" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7296,10 +7571,10 @@
         <v>1382</v>
       </c>
       <c r="H111" s="2">
-        <v>44252.94616428713</v>
+        <v>44252.95631725901</v>
       </c>
       <c r="I111" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -7322,10 +7597,10 @@
         <v>1382</v>
       </c>
       <c r="H112" s="2">
-        <v>44252.94616432176</v>
+        <v>44252.95631730468</v>
       </c>
       <c r="I112" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7345,10 +7620,10 @@
         <v>1382</v>
       </c>
       <c r="H113" s="2">
-        <v>44252.94616435639</v>
+        <v>44252.95631734039</v>
       </c>
       <c r="I113" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -7368,10 +7643,10 @@
         <v>1382</v>
       </c>
       <c r="H114" s="2">
-        <v>44252.94616439102</v>
+        <v>44252.95631737496</v>
       </c>
       <c r="I114" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -7391,10 +7666,10 @@
         <v>1382</v>
       </c>
       <c r="H115" s="2">
-        <v>44252.94616442565</v>
+        <v>44252.95631740913</v>
       </c>
       <c r="I115" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7417,10 +7692,10 @@
         <v>1382</v>
       </c>
       <c r="H116" s="2">
-        <v>44252.94616446028</v>
+        <v>44252.95631744439</v>
       </c>
       <c r="I116" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7440,10 +7715,10 @@
         <v>1382</v>
       </c>
       <c r="H117" s="2">
-        <v>44252.9461644949</v>
+        <v>44252.95631747947</v>
       </c>
       <c r="I117" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7463,10 +7738,10 @@
         <v>1382</v>
       </c>
       <c r="H118" s="2">
-        <v>44252.94616452954</v>
+        <v>44252.95631751415</v>
       </c>
       <c r="I118" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -7489,10 +7764,10 @@
         <v>1382</v>
       </c>
       <c r="H119" s="2">
-        <v>44252.94616456416</v>
+        <v>44252.95631754873</v>
       </c>
       <c r="I119" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -7515,10 +7790,10 @@
         <v>1382</v>
       </c>
       <c r="H120" s="2">
-        <v>44252.94616461034</v>
+        <v>44252.95631758392</v>
       </c>
       <c r="I120" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -7541,10 +7816,10 @@
         <v>1382</v>
       </c>
       <c r="H121" s="2">
-        <v>44252.94616464496</v>
+        <v>44252.95631761854</v>
       </c>
       <c r="I121" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -7567,10 +7842,10 @@
         <v>1382</v>
       </c>
       <c r="H122" s="2">
-        <v>44252.9461646796</v>
+        <v>44252.95631766472</v>
       </c>
       <c r="I122" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7590,10 +7865,10 @@
         <v>1382</v>
       </c>
       <c r="H123" s="2">
-        <v>44252.94616471424</v>
+        <v>44252.95631770948</v>
       </c>
       <c r="I123" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -7616,10 +7891,10 @@
         <v>1382</v>
       </c>
       <c r="H124" s="2">
-        <v>44252.94616473732</v>
+        <v>44252.95631775518</v>
       </c>
       <c r="I124" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -7639,10 +7914,10 @@
         <v>1382</v>
       </c>
       <c r="H125" s="2">
-        <v>44252.94616478348</v>
+        <v>44252.95631779037</v>
       </c>
       <c r="I125" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -7665,10 +7940,10 @@
         <v>1382</v>
       </c>
       <c r="H126" s="2">
-        <v>44252.94616481812</v>
+        <v>44252.95631782546</v>
       </c>
       <c r="I126" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -7691,10 +7966,10 @@
         <v>1382</v>
       </c>
       <c r="H127" s="2">
-        <v>44252.94616486432</v>
+        <v>44252.95631786001</v>
       </c>
       <c r="I127" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -7714,10 +7989,10 @@
         <v>1382</v>
       </c>
       <c r="H128" s="2">
-        <v>44252.94616491048</v>
+        <v>44252.95631789477</v>
       </c>
       <c r="I128" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7740,10 +8015,10 @@
         <v>1382</v>
       </c>
       <c r="H129" s="2">
-        <v>44252.9461649568</v>
+        <v>44252.95631794146</v>
       </c>
       <c r="I129" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -7766,10 +8041,10 @@
         <v>1382</v>
       </c>
       <c r="H130" s="2">
-        <v>44252.94616502661</v>
+        <v>44252.95631797597</v>
       </c>
       <c r="I130" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -7792,10 +8067,10 @@
         <v>1382</v>
       </c>
       <c r="H131" s="2">
-        <v>44252.94616506738</v>
+        <v>44252.95631801071</v>
       </c>
       <c r="I131" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -7818,10 +8093,10 @@
         <v>1382</v>
       </c>
       <c r="H132" s="2">
-        <v>44252.94616509048</v>
+        <v>44252.95631804584</v>
       </c>
       <c r="I132" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7841,10 +8116,10 @@
         <v>1382</v>
       </c>
       <c r="H133" s="2">
-        <v>44252.94616513616</v>
+        <v>44252.95631808058</v>
       </c>
       <c r="I133" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7867,10 +8142,10 @@
         <v>1382</v>
       </c>
       <c r="H134" s="2">
-        <v>44252.94616517127</v>
+        <v>44252.95631813464</v>
       </c>
       <c r="I134" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7893,10 +8168,10 @@
         <v>1382</v>
       </c>
       <c r="H135" s="2">
-        <v>44252.94616520591</v>
+        <v>44252.95631815793</v>
       </c>
       <c r="I135" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7919,10 +8194,10 @@
         <v>1382</v>
       </c>
       <c r="H136" s="2">
-        <v>44252.94616522902</v>
+        <v>44252.95631819267</v>
       </c>
       <c r="I136" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7945,10 +8220,10 @@
         <v>1382</v>
       </c>
       <c r="H137" s="2">
-        <v>44252.94616526363</v>
+        <v>44252.95631823885</v>
       </c>
       <c r="I137" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7971,10 +8246,10 @@
         <v>1382</v>
       </c>
       <c r="H138" s="2">
-        <v>44252.94616530978</v>
+        <v>44252.95631827292</v>
       </c>
       <c r="I138" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7994,10 +8269,10 @@
         <v>1382</v>
       </c>
       <c r="H139" s="2">
-        <v>44252.94616534441</v>
+        <v>44252.95631831912</v>
       </c>
       <c r="I139" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -8017,10 +8292,10 @@
         <v>1382</v>
       </c>
       <c r="H140" s="2">
-        <v>44252.94616537911</v>
+        <v>44252.95631836529</v>
       </c>
       <c r="I140" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -8040,10 +8315,10 @@
         <v>1382</v>
       </c>
       <c r="H141" s="2">
-        <v>44252.9461654137</v>
+        <v>44252.95631841146</v>
       </c>
       <c r="I141" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8066,10 +8341,10 @@
         <v>1382</v>
       </c>
       <c r="H142" s="2">
-        <v>44252.94616544833</v>
+        <v>44252.95631846918</v>
       </c>
       <c r="I142" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -8089,10 +8364,10 @@
         <v>1382</v>
       </c>
       <c r="H143" s="2">
-        <v>44252.94616548294</v>
+        <v>44252.95631852689</v>
       </c>
       <c r="I143" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8112,10 +8387,10 @@
         <v>1382</v>
       </c>
       <c r="H144" s="2">
-        <v>44252.94616551759</v>
+        <v>44252.95631857312</v>
       </c>
       <c r="I144" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -8138,10 +8413,10 @@
         <v>1382</v>
       </c>
       <c r="H145" s="2">
-        <v>44252.94616554065</v>
+        <v>44252.95631860767</v>
       </c>
       <c r="I145" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -8164,10 +8439,10 @@
         <v>1382</v>
       </c>
       <c r="H146" s="2">
-        <v>44252.94616557529</v>
+        <v>44252.95631865388</v>
       </c>
       <c r="I146" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -8190,10 +8465,10 @@
         <v>1382</v>
       </c>
       <c r="H147" s="2">
-        <v>44252.94616560992</v>
+        <v>44252.95631868848</v>
       </c>
       <c r="I147" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -8213,10 +8488,10 @@
         <v>1382</v>
       </c>
       <c r="H148" s="2">
-        <v>44252.94616564459</v>
+        <v>44252.95631872311</v>
       </c>
       <c r="I148" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -8239,10 +8514,10 @@
         <v>1382</v>
       </c>
       <c r="H149" s="2">
-        <v>44252.94616567917</v>
+        <v>44252.95631875774</v>
       </c>
       <c r="I149" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -8265,10 +8540,10 @@
         <v>1382</v>
       </c>
       <c r="H150" s="2">
-        <v>44252.94616571379</v>
+        <v>44252.95631879248</v>
       </c>
       <c r="I150" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -8291,10 +8566,10 @@
         <v>1382</v>
       </c>
       <c r="H151" s="2">
-        <v>44252.94616574845</v>
+        <v>44252.95631883855</v>
       </c>
       <c r="I151" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -8314,10 +8589,10 @@
         <v>1382</v>
       </c>
       <c r="H152" s="2">
-        <v>44252.94616578308</v>
+        <v>44252.95631887358</v>
       </c>
       <c r="I152" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -8337,10 +8612,10 @@
         <v>1382</v>
       </c>
       <c r="H153" s="2">
-        <v>44252.94616580616</v>
+        <v>44252.95631890825</v>
       </c>
       <c r="I153" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -8363,10 +8638,10 @@
         <v>1382</v>
       </c>
       <c r="H154" s="2">
-        <v>44252.94616584077</v>
+        <v>44252.95631895438</v>
       </c>
       <c r="I154" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -8389,10 +8664,10 @@
         <v>1382</v>
       </c>
       <c r="H155" s="2">
-        <v>44252.94616587493</v>
+        <v>44252.95631898902</v>
       </c>
       <c r="I155" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -8412,10 +8687,10 @@
         <v>1382</v>
       </c>
       <c r="H156" s="2">
-        <v>44252.94616590995</v>
+        <v>44252.95631902366</v>
       </c>
       <c r="I156" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -8435,10 +8710,10 @@
         <v>1382</v>
       </c>
       <c r="H157" s="2">
-        <v>44252.94616594462</v>
+        <v>44252.95631906941</v>
       </c>
       <c r="I157" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -8461,10 +8736,10 @@
         <v>1382</v>
       </c>
       <c r="H158" s="2">
-        <v>44252.94616597925</v>
+        <v>44252.95631910446</v>
       </c>
       <c r="I158" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -8484,10 +8759,10 @@
         <v>1382</v>
       </c>
       <c r="H159" s="2">
-        <v>44252.9461660139</v>
+        <v>44252.95631912754</v>
       </c>
       <c r="I159" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -8507,10 +8782,10 @@
         <v>1382</v>
       </c>
       <c r="H160" s="2">
-        <v>44252.94616603704</v>
+        <v>44252.9563191733</v>
       </c>
       <c r="I160" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -8530,10 +8805,10 @@
         <v>1382</v>
       </c>
       <c r="H161" s="2">
-        <v>44252.94616608317</v>
+        <v>44252.95631921991</v>
       </c>
       <c r="I161" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -8556,10 +8831,10 @@
         <v>1382</v>
       </c>
       <c r="H162" s="2">
-        <v>44252.94616611773</v>
+        <v>44252.95631925456</v>
       </c>
       <c r="I162" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -8579,10 +8854,10 @@
         <v>1382</v>
       </c>
       <c r="H163" s="2">
-        <v>44252.94616615236</v>
+        <v>44252.95631928917</v>
       </c>
       <c r="I163" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -8605,10 +8880,10 @@
         <v>1382</v>
       </c>
       <c r="H164" s="2">
-        <v>44252.94616617545</v>
+        <v>44252.95631931226</v>
       </c>
       <c r="I164" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -8628,10 +8903,10 @@
         <v>1382</v>
       </c>
       <c r="H165" s="2">
-        <v>44252.94616621688</v>
+        <v>44252.95631934688</v>
       </c>
       <c r="I165" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -8654,10 +8929,10 @@
         <v>1382</v>
       </c>
       <c r="H166" s="2">
-        <v>44252.94616625156</v>
+        <v>44252.95631939269</v>
       </c>
       <c r="I166" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -8680,10 +8955,10 @@
         <v>1382</v>
       </c>
       <c r="H167" s="2">
-        <v>44252.94616628618</v>
+        <v>44252.95631942769</v>
       </c>
       <c r="I167" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95630787037</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8706,10 +8981,10 @@
         <v>1382</v>
       </c>
       <c r="H168" s="2">
-        <v>44252.94616632081</v>
+        <v>44252.95631946229</v>
       </c>
       <c r="I168" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8732,10 +9007,10 @@
         <v>1382</v>
       </c>
       <c r="H169" s="2">
-        <v>44252.94616635499</v>
+        <v>44252.95631949692</v>
       </c>
       <c r="I169" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8755,10 +9030,10 @@
         <v>1382</v>
       </c>
       <c r="H170" s="2">
-        <v>44252.94616640155</v>
+        <v>44252.95631953154</v>
       </c>
       <c r="I170" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8781,10 +9056,10 @@
         <v>1382</v>
       </c>
       <c r="H171" s="2">
-        <v>44252.94616643644</v>
+        <v>44252.95631956618</v>
       </c>
       <c r="I171" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8807,10 +9082,10 @@
         <v>1382</v>
       </c>
       <c r="H172" s="2">
-        <v>44252.94616647084</v>
+        <v>44252.95631961208</v>
       </c>
       <c r="I172" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8833,10 +9108,10 @@
         <v>1382</v>
       </c>
       <c r="H173" s="2">
-        <v>44252.94616650545</v>
+        <v>44252.95631965857</v>
       </c>
       <c r="I173" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8859,10 +9134,10 @@
         <v>1382</v>
       </c>
       <c r="H174" s="2">
-        <v>44252.94616655162</v>
+        <v>44252.95631969318</v>
       </c>
       <c r="I174" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8885,10 +9160,10 @@
         <v>1382</v>
       </c>
       <c r="H175" s="2">
-        <v>44252.9461665862</v>
+        <v>44252.95631972781</v>
       </c>
       <c r="I175" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8911,10 +9186,10 @@
         <v>1382</v>
       </c>
       <c r="H176" s="2">
-        <v>44252.94616660934</v>
+        <v>44252.95631977401</v>
       </c>
       <c r="I176" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8937,10 +9212,10 @@
         <v>1382</v>
       </c>
       <c r="H177" s="2">
-        <v>44252.94616664396</v>
+        <v>44252.95631982021</v>
       </c>
       <c r="I177" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8963,10 +9238,10 @@
         <v>1382</v>
       </c>
       <c r="H178" s="2">
-        <v>44252.94616667864</v>
+        <v>44252.95631984351</v>
       </c>
       <c r="I178" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8989,10 +9264,10 @@
         <v>1382</v>
       </c>
       <c r="H179" s="2">
-        <v>44252.9461667133</v>
+        <v>44252.95631988897</v>
       </c>
       <c r="I179" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -9015,10 +9290,10 @@
         <v>1382</v>
       </c>
       <c r="H180" s="2">
-        <v>44252.94616674792</v>
+        <v>44252.95631992401</v>
       </c>
       <c r="I180" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -9041,10 +9316,10 @@
         <v>1382</v>
       </c>
       <c r="H181" s="2">
-        <v>44252.94616679413</v>
+        <v>44252.95631995866</v>
       </c>
       <c r="I181" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -9064,10 +9339,10 @@
         <v>1382</v>
       </c>
       <c r="H182" s="2">
-        <v>44252.94616681716</v>
+        <v>44252.95632000495</v>
       </c>
       <c r="I182" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -9090,10 +9365,10 @@
         <v>1382</v>
       </c>
       <c r="H183" s="2">
-        <v>44252.94616685178</v>
+        <v>44252.95632003946</v>
       </c>
       <c r="I183" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -9113,10 +9388,10 @@
         <v>1382</v>
       </c>
       <c r="H184" s="2">
-        <v>44252.9461668975</v>
+        <v>44252.95632007367</v>
       </c>
       <c r="I184" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9139,10 +9414,10 @@
         <v>1382</v>
       </c>
       <c r="H185" s="2">
-        <v>44252.94616693257</v>
+        <v>44252.95632012025</v>
       </c>
       <c r="I185" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9165,10 +9440,10 @@
         <v>1382</v>
       </c>
       <c r="H186" s="2">
-        <v>44252.94616695567</v>
+        <v>44252.9563201549</v>
       </c>
       <c r="I186" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9191,10 +9466,10 @@
         <v>1382</v>
       </c>
       <c r="H187" s="2">
-        <v>44252.94616699029</v>
+        <v>44252.95632022096</v>
       </c>
       <c r="I187" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9214,10 +9489,10 @@
         <v>1382</v>
       </c>
       <c r="H188" s="2">
-        <v>44252.94616702492</v>
+        <v>44252.9563202556</v>
       </c>
       <c r="I188" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9237,10 +9512,10 @@
         <v>1382</v>
       </c>
       <c r="H189" s="2">
-        <v>44252.94616705959</v>
+        <v>44252.95632029023</v>
       </c>
       <c r="I189" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9260,10 +9535,10 @@
         <v>1382</v>
       </c>
       <c r="H190" s="2">
-        <v>44252.9461670942</v>
+        <v>44252.95632032461</v>
       </c>
       <c r="I190" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9286,10 +9561,10 @@
         <v>1382</v>
       </c>
       <c r="H191" s="2">
-        <v>44252.94616712885</v>
+        <v>44252.95632039371</v>
       </c>
       <c r="I191" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9312,10 +9587,10 @@
         <v>1382</v>
       </c>
       <c r="H192" s="2">
-        <v>44252.94616716351</v>
+        <v>44252.95632042833</v>
       </c>
       <c r="I192" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -9338,10 +9613,10 @@
         <v>1382</v>
       </c>
       <c r="H193" s="2">
-        <v>44252.9461671981</v>
+        <v>44252.95632048605</v>
       </c>
       <c r="I193" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -9364,10 +9639,10 @@
         <v>1382</v>
       </c>
       <c r="H194" s="2">
-        <v>44252.94616723273</v>
+        <v>44252.95632052068</v>
       </c>
       <c r="I194" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -9390,10 +9665,10 @@
         <v>1382</v>
       </c>
       <c r="H195" s="2">
-        <v>44252.94616726739</v>
+        <v>44252.95632055531</v>
       </c>
       <c r="I195" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -9413,10 +9688,10 @@
         <v>1382</v>
       </c>
       <c r="H196" s="2">
-        <v>44252.9461673015</v>
+        <v>44252.95632058994</v>
       </c>
       <c r="I196" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -9439,10 +9714,10 @@
         <v>1382</v>
       </c>
       <c r="H197" s="2">
-        <v>44252.94616733665</v>
+        <v>44252.95632062457</v>
       </c>
       <c r="I197" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -9462,10 +9737,10 @@
         <v>1382</v>
       </c>
       <c r="H198" s="2">
-        <v>44252.94616737123</v>
+        <v>44252.9563206592</v>
       </c>
       <c r="I198" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -9488,10 +9763,10 @@
         <v>1382</v>
       </c>
       <c r="H199" s="2">
-        <v>44252.94616740593</v>
+        <v>44252.95632070538</v>
       </c>
       <c r="I199" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -9514,10 +9789,10 @@
         <v>1382</v>
       </c>
       <c r="H200" s="2">
-        <v>44252.94616744004</v>
+        <v>44252.95632074</v>
       </c>
       <c r="I200" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -9540,10 +9815,10 @@
         <v>1382</v>
       </c>
       <c r="H201" s="2">
-        <v>44252.94616748622</v>
+        <v>44252.95632077463</v>
       </c>
       <c r="I201" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9566,10 +9841,10 @@
         <v>1382</v>
       </c>
       <c r="H202" s="2">
-        <v>44252.94616753238</v>
+        <v>44252.95632082081</v>
       </c>
       <c r="I202" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9589,10 +9864,10 @@
         <v>1382</v>
       </c>
       <c r="H203" s="2">
-        <v>44252.94616756702</v>
+        <v>44252.95632086698</v>
       </c>
       <c r="I203" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9615,10 +9890,10 @@
         <v>1382</v>
       </c>
       <c r="H204" s="2">
-        <v>44252.94616762476</v>
+        <v>44252.95632090161</v>
       </c>
       <c r="I204" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9638,10 +9913,10 @@
         <v>1382</v>
       </c>
       <c r="H205" s="2">
-        <v>44252.94616767095</v>
+        <v>44252.95632093624</v>
       </c>
       <c r="I205" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9661,10 +9936,10 @@
         <v>1382</v>
       </c>
       <c r="H206" s="2">
-        <v>44252.94616772873</v>
+        <v>44252.95632097086</v>
       </c>
       <c r="I206" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9687,10 +9962,10 @@
         <v>1382</v>
       </c>
       <c r="H207" s="2">
-        <v>44252.94616776336</v>
+        <v>44252.95632101704</v>
       </c>
       <c r="I207" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9713,10 +9988,10 @@
         <v>1382</v>
       </c>
       <c r="H208" s="2">
-        <v>44252.94616782161</v>
+        <v>44252.95632107476</v>
       </c>
       <c r="I208" s="2">
-        <v>43886.94615740741</v>
+        <v>43886.95631944444</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9736,10 +10011,10 @@
         <v>1382</v>
       </c>
       <c r="H209" s="2">
-        <v>44252.94638015743</v>
+        <v>44252.95655516743</v>
       </c>
       <c r="I209" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9759,10 +10034,10 @@
         <v>1382</v>
       </c>
       <c r="H210" s="2">
-        <v>44252.94638018053</v>
+        <v>44252.95655529436</v>
       </c>
       <c r="I210" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9785,10 +10060,10 @@
         <v>1382</v>
       </c>
       <c r="H211" s="2">
-        <v>44252.94638022671</v>
+        <v>44252.95655536362</v>
       </c>
       <c r="I211" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9811,10 +10086,10 @@
         <v>1382</v>
       </c>
       <c r="H212" s="2">
-        <v>44252.94638024981</v>
+        <v>44252.95655545597</v>
       </c>
       <c r="I212" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9837,10 +10112,10 @@
         <v>1382</v>
       </c>
       <c r="H213" s="2">
-        <v>44252.94638028441</v>
+        <v>44252.95655552532</v>
       </c>
       <c r="I213" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9860,10 +10135,10 @@
         <v>1382</v>
       </c>
       <c r="H214" s="2">
-        <v>44252.94638034384</v>
+        <v>44252.9565556638</v>
       </c>
       <c r="I214" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9883,10 +10158,10 @@
         <v>1382</v>
       </c>
       <c r="H215" s="2">
-        <v>44252.94638038998</v>
+        <v>44252.95655572147</v>
       </c>
       <c r="I215" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9909,10 +10184,10 @@
         <v>1382</v>
       </c>
       <c r="H216" s="2">
-        <v>44252.94638041309</v>
+        <v>44252.95655577924</v>
       </c>
       <c r="I216" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9935,10 +10210,10 @@
         <v>1382</v>
       </c>
       <c r="H217" s="2">
-        <v>44252.94638044772</v>
+        <v>44252.95655591771</v>
       </c>
       <c r="I217" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9958,10 +10233,10 @@
         <v>1382</v>
       </c>
       <c r="H218" s="2">
-        <v>44252.94638049392</v>
+        <v>44252.95655599856</v>
       </c>
       <c r="I218" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9981,10 +10256,10 @@
         <v>1382</v>
       </c>
       <c r="H219" s="2">
-        <v>44252.94638052852</v>
+        <v>44252.95655607931</v>
       </c>
       <c r="I219" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10007,10 +10282,10 @@
         <v>1382</v>
       </c>
       <c r="H220" s="2">
-        <v>44252.94638056365</v>
+        <v>44252.95655613701</v>
       </c>
       <c r="I220" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10030,10 +10305,10 @@
         <v>1382</v>
       </c>
       <c r="H221" s="2">
-        <v>44252.94638059827</v>
+        <v>44252.95655621782</v>
       </c>
       <c r="I221" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10056,10 +10331,10 @@
         <v>1382</v>
       </c>
       <c r="H222" s="2">
-        <v>44252.94638063291</v>
+        <v>44252.95655626404</v>
       </c>
       <c r="I222" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10079,10 +10354,10 @@
         <v>1382</v>
       </c>
       <c r="H223" s="2">
-        <v>44252.94638066753</v>
+        <v>44252.95655631016</v>
       </c>
       <c r="I223" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10102,10 +10377,10 @@
         <v>1382</v>
       </c>
       <c r="H224" s="2">
-        <v>44252.94638071328</v>
+        <v>44252.95655635634</v>
       </c>
       <c r="I224" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10125,10 +10400,10 @@
         <v>1382</v>
       </c>
       <c r="H225" s="2">
-        <v>44252.94638073682</v>
+        <v>44252.95655642559</v>
       </c>
       <c r="I225" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10151,10 +10426,10 @@
         <v>1382</v>
       </c>
       <c r="H226" s="2">
-        <v>44252.9463807712</v>
+        <v>44252.95655652949</v>
       </c>
       <c r="I226" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -10174,10 +10449,10 @@
         <v>1382</v>
       </c>
       <c r="H227" s="2">
-        <v>44252.94638080654</v>
+        <v>44252.95655665647</v>
       </c>
       <c r="I227" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -10197,10 +10472,10 @@
         <v>1382</v>
       </c>
       <c r="H228" s="2">
-        <v>44252.94638084117</v>
+        <v>44252.95655671418</v>
       </c>
       <c r="I228" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -10220,10 +10495,10 @@
         <v>1382</v>
       </c>
       <c r="H229" s="2">
-        <v>44252.9463808758</v>
+        <v>44252.95655680673</v>
       </c>
       <c r="I229" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -10246,10 +10521,10 @@
         <v>1382</v>
       </c>
       <c r="H230" s="2">
-        <v>44252.94638091</v>
+        <v>44252.95655694506</v>
       </c>
       <c r="I230" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -10269,10 +10544,10 @@
         <v>1382</v>
       </c>
       <c r="H231" s="2">
-        <v>44252.94638094506</v>
+        <v>44252.95655701433</v>
       </c>
       <c r="I231" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -10295,10 +10570,10 @@
         <v>1382</v>
       </c>
       <c r="H232" s="2">
-        <v>44252.94638097969</v>
+        <v>44252.95655709513</v>
       </c>
       <c r="I232" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -10321,10 +10596,10 @@
         <v>1382</v>
       </c>
       <c r="H233" s="2">
-        <v>44252.94638101428</v>
+        <v>44252.95655723369</v>
       </c>
       <c r="I233" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -10347,10 +10622,10 @@
         <v>1382</v>
       </c>
       <c r="H234" s="2">
-        <v>44252.94638106049</v>
+        <v>44252.95655732606</v>
       </c>
       <c r="I234" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -10370,10 +10645,10 @@
         <v>1382</v>
       </c>
       <c r="H235" s="2">
-        <v>44252.94638109511</v>
+        <v>44252.95655746456</v>
       </c>
       <c r="I235" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -10393,10 +10668,10 @@
         <v>1382</v>
       </c>
       <c r="H236" s="2">
-        <v>44252.94638112971</v>
+        <v>44252.95655754537</v>
       </c>
       <c r="I236" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10416,10 +10691,10 @@
         <v>1382</v>
       </c>
       <c r="H237" s="2">
-        <v>44252.94638116365</v>
+        <v>44252.95655763766</v>
       </c>
       <c r="I237" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10442,10 +10717,10 @@
         <v>1382</v>
       </c>
       <c r="H238" s="2">
-        <v>44252.94638119831</v>
+        <v>44252.95655767227</v>
       </c>
       <c r="I238" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10465,10 +10740,10 @@
         <v>1382</v>
       </c>
       <c r="H239" s="2">
-        <v>44252.9463812329</v>
+        <v>44252.95655773</v>
       </c>
       <c r="I239" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10491,10 +10766,10 @@
         <v>1382</v>
       </c>
       <c r="H240" s="2">
-        <v>44252.94638126708</v>
+        <v>44252.95655778771</v>
       </c>
       <c r="I240" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10517,10 +10792,10 @@
         <v>1382</v>
       </c>
       <c r="H241" s="2">
-        <v>44252.94638130216</v>
+        <v>44252.95655782233</v>
       </c>
       <c r="I241" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10540,10 +10815,10 @@
         <v>1382</v>
       </c>
       <c r="H242" s="2">
-        <v>44252.94638133676</v>
+        <v>44252.95655788005</v>
       </c>
       <c r="I242" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10566,10 +10841,10 @@
         <v>1382</v>
       </c>
       <c r="H243" s="2">
-        <v>44252.94638137141</v>
+        <v>44252.95655794931</v>
       </c>
       <c r="I243" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10592,10 +10867,10 @@
         <v>1382</v>
       </c>
       <c r="H244" s="2">
-        <v>44252.94638140604</v>
+        <v>44252.95655800703</v>
       </c>
       <c r="I244" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10615,10 +10890,10 @@
         <v>1382</v>
       </c>
       <c r="H245" s="2">
-        <v>44252.94638144088</v>
+        <v>44252.95655805332</v>
       </c>
       <c r="I245" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10641,10 +10916,10 @@
         <v>1382</v>
       </c>
       <c r="H246" s="2">
-        <v>44252.94638147487</v>
+        <v>44252.95655811091</v>
       </c>
       <c r="I246" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10664,10 +10939,10 @@
         <v>1382</v>
       </c>
       <c r="H247" s="2">
-        <v>44252.94638150993</v>
+        <v>44252.95655816863</v>
       </c>
       <c r="I247" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10687,10 +10962,10 @@
         <v>1382</v>
       </c>
       <c r="H248" s="2">
-        <v>44252.94638154456</v>
+        <v>44252.95655824945</v>
       </c>
       <c r="I248" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10710,10 +10985,10 @@
         <v>1382</v>
       </c>
       <c r="H249" s="2">
-        <v>44252.94638156765</v>
+        <v>44252.95655833023</v>
       </c>
       <c r="I249" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10736,10 +11011,10 @@
         <v>1382</v>
       </c>
       <c r="H250" s="2">
-        <v>44252.94638160538</v>
+        <v>44252.95655841104</v>
       </c>
       <c r="I250" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10762,10 +11037,10 @@
         <v>1382</v>
       </c>
       <c r="H251" s="2">
-        <v>44252.94638164008</v>
+        <v>44252.95655845725</v>
       </c>
       <c r="I251" s="2">
-        <v>43886.94637731482</v>
+        <v>43886.95655092593</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10785,10 +11060,10 @@
         <v>1383</v>
       </c>
       <c r="H252" s="2">
-        <v>44252.94638167465</v>
+        <v>44252.95655852649</v>
       </c>
       <c r="I252" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10811,10 +11086,10 @@
         <v>1383</v>
       </c>
       <c r="H253" s="2">
-        <v>44252.94638170928</v>
+        <v>44252.95655859573</v>
       </c>
       <c r="I253" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10837,10 +11112,10 @@
         <v>1383</v>
       </c>
       <c r="H254" s="2">
-        <v>44252.94638174399</v>
+        <v>44252.95655865365</v>
       </c>
       <c r="I254" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10860,10 +11135,10 @@
         <v>1383</v>
       </c>
       <c r="H255" s="2">
-        <v>44252.94638177855</v>
+        <v>44252.95655875735</v>
       </c>
       <c r="I255" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10883,10 +11158,10 @@
         <v>1383</v>
       </c>
       <c r="H256" s="2">
-        <v>44252.94638181323</v>
+        <v>44252.9565588266</v>
       </c>
       <c r="I256" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10909,10 +11184,10 @@
         <v>1383</v>
       </c>
       <c r="H257" s="2">
-        <v>44252.94638184846</v>
+        <v>44252.95655889586</v>
       </c>
       <c r="I257" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10935,10 +11210,10 @@
         <v>1383</v>
       </c>
       <c r="H258" s="2">
-        <v>44252.94638188311</v>
+        <v>44252.95655895356</v>
       </c>
       <c r="I258" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10958,10 +11233,10 @@
         <v>1383</v>
       </c>
       <c r="H259" s="2">
-        <v>44252.94638192884</v>
+        <v>44252.95655901131</v>
       </c>
       <c r="I259" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10981,10 +11256,10 @@
         <v>1383</v>
       </c>
       <c r="H260" s="2">
-        <v>44252.94638196345</v>
+        <v>44252.95655906912</v>
       </c>
       <c r="I260" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -11004,10 +11279,10 @@
         <v>1383</v>
       </c>
       <c r="H261" s="2">
-        <v>44252.9463819985</v>
+        <v>44252.95655912672</v>
       </c>
       <c r="I261" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -11030,10 +11305,10 @@
         <v>1383</v>
       </c>
       <c r="H262" s="2">
-        <v>44252.94638203316</v>
+        <v>44252.95655921906</v>
       </c>
       <c r="I262" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -11056,10 +11331,10 @@
         <v>1383</v>
       </c>
       <c r="H263" s="2">
-        <v>44252.94638206757</v>
+        <v>44252.95655927678</v>
       </c>
       <c r="I263" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -11082,10 +11357,10 @@
         <v>1383</v>
       </c>
       <c r="H264" s="2">
-        <v>44252.94638210261</v>
+        <v>44252.95655932295</v>
       </c>
       <c r="I264" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -11108,10 +11383,10 @@
         <v>1383</v>
       </c>
       <c r="H265" s="2">
-        <v>44252.94638213725</v>
+        <v>44252.95655936917</v>
       </c>
       <c r="I265" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -11131,10 +11406,10 @@
         <v>1383</v>
       </c>
       <c r="H266" s="2">
-        <v>44252.94638217187</v>
+        <v>44252.95655941528</v>
       </c>
       <c r="I266" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -11154,10 +11429,10 @@
         <v>1383</v>
       </c>
       <c r="H267" s="2">
-        <v>44252.94638220653</v>
+        <v>44252.95655946148</v>
       </c>
       <c r="I267" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -11180,10 +11455,10 @@
         <v>1383</v>
       </c>
       <c r="H268" s="2">
-        <v>44252.94638224113</v>
+        <v>44252.95655950764</v>
       </c>
       <c r="I268" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -11206,10 +11481,10 @@
         <v>1383</v>
       </c>
       <c r="H269" s="2">
-        <v>44252.94638227582</v>
+        <v>44252.95655954228</v>
       </c>
       <c r="I269" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -11232,10 +11507,10 @@
         <v>1383</v>
       </c>
       <c r="H270" s="2">
-        <v>44252.94638231088</v>
+        <v>44252.95655958846</v>
       </c>
       <c r="I270" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11258,10 +11533,10 @@
         <v>1383</v>
       </c>
       <c r="H271" s="2">
-        <v>44252.94638234551</v>
+        <v>44252.95655964615</v>
       </c>
       <c r="I271" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11281,10 +11556,10 @@
         <v>1383</v>
       </c>
       <c r="H272" s="2">
-        <v>44252.94638238015</v>
+        <v>44252.95655971549</v>
       </c>
       <c r="I272" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11307,10 +11582,10 @@
         <v>1383</v>
       </c>
       <c r="H273" s="2">
-        <v>44252.94638241475</v>
+        <v>44252.95655979629</v>
       </c>
       <c r="I273" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11330,10 +11605,10 @@
         <v>1383</v>
       </c>
       <c r="H274" s="2">
-        <v>44252.94638244941</v>
+        <v>44252.95655984241</v>
       </c>
       <c r="I274" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11356,10 +11631,10 @@
         <v>1383</v>
       </c>
       <c r="H275" s="2">
-        <v>44252.94638249571</v>
+        <v>44252.95655990011</v>
       </c>
       <c r="I275" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11382,10 +11657,10 @@
         <v>1383</v>
       </c>
       <c r="H276" s="2">
-        <v>44252.94638253019</v>
+        <v>44252.95655993475</v>
       </c>
       <c r="I276" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11405,10 +11680,10 @@
         <v>1383</v>
       </c>
       <c r="H277" s="2">
-        <v>44252.94638256483</v>
+        <v>44252.95655998099</v>
       </c>
       <c r="I277" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11428,10 +11703,10 @@
         <v>1383</v>
       </c>
       <c r="H278" s="2">
-        <v>44252.94638259945</v>
+        <v>44252.95656002711</v>
       </c>
       <c r="I278" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11451,10 +11726,10 @@
         <v>1383</v>
       </c>
       <c r="H279" s="2">
-        <v>44252.94638263384</v>
+        <v>44252.95656007325</v>
       </c>
       <c r="I279" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11477,10 +11752,10 @@
         <v>1383</v>
       </c>
       <c r="H280" s="2">
-        <v>44252.94638266812</v>
+        <v>44252.95656011942</v>
       </c>
       <c r="I280" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11500,10 +11775,10 @@
         <v>1383</v>
       </c>
       <c r="H281" s="2">
-        <v>44252.9463827028</v>
+        <v>44252.95656015406</v>
       </c>
       <c r="I281" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11523,10 +11798,10 @@
         <v>1383</v>
       </c>
       <c r="H282" s="2">
-        <v>44252.94638273737</v>
+        <v>44252.95656020023</v>
       </c>
       <c r="I282" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11546,10 +11821,10 @@
         <v>1383</v>
       </c>
       <c r="H283" s="2">
-        <v>44252.94638277202</v>
+        <v>44252.95656024639</v>
       </c>
       <c r="I283" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11572,10 +11847,10 @@
         <v>1383</v>
       </c>
       <c r="H284" s="2">
-        <v>44252.94638279514</v>
+        <v>44252.95656029263</v>
       </c>
       <c r="I284" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -11598,10 +11873,10 @@
         <v>1383</v>
       </c>
       <c r="H285" s="2">
-        <v>44252.94638282972</v>
+        <v>44252.95656032726</v>
       </c>
       <c r="I285" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -11621,10 +11896,10 @@
         <v>1383</v>
       </c>
       <c r="H286" s="2">
-        <v>44252.9463828653</v>
+        <v>44252.95656038492</v>
       </c>
       <c r="I286" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -11644,10 +11919,10 @@
         <v>1383</v>
       </c>
       <c r="H287" s="2">
-        <v>44252.9463829</v>
+        <v>44252.95656044307</v>
       </c>
       <c r="I287" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -11670,10 +11945,10 @@
         <v>1383</v>
       </c>
       <c r="H288" s="2">
-        <v>44252.94638293464</v>
+        <v>44252.95656047775</v>
       </c>
       <c r="I288" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -11696,10 +11971,10 @@
         <v>1383</v>
       </c>
       <c r="H289" s="2">
-        <v>44252.94638296925</v>
+        <v>44252.95656053541</v>
       </c>
       <c r="I289" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -11719,10 +11994,10 @@
         <v>1383</v>
       </c>
       <c r="H290" s="2">
-        <v>44252.94638300389</v>
+        <v>44252.95656059268</v>
       </c>
       <c r="I290" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -11742,10 +12017,10 @@
         <v>1383</v>
       </c>
       <c r="H291" s="2">
-        <v>44252.94638303854</v>
+        <v>44252.95656068508</v>
       </c>
       <c r="I291" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -11768,10 +12043,10 @@
         <v>1383</v>
       </c>
       <c r="H292" s="2">
-        <v>44252.94638307309</v>
+        <v>44252.95656076584</v>
       </c>
       <c r="I292" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -11791,10 +12066,10 @@
         <v>1383</v>
       </c>
       <c r="H293" s="2">
-        <v>44252.94638310977</v>
+        <v>44252.9565608354</v>
       </c>
       <c r="I293" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -11814,10 +12089,10 @@
         <v>1383</v>
       </c>
       <c r="H294" s="2">
-        <v>44252.94638314493</v>
+        <v>44252.95656092787</v>
       </c>
       <c r="I294" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -11837,10 +12112,10 @@
         <v>1383</v>
       </c>
       <c r="H295" s="2">
-        <v>44252.94638316802</v>
+        <v>44252.95656100828</v>
       </c>
       <c r="I295" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -11860,10 +12135,10 @@
         <v>1383</v>
       </c>
       <c r="H296" s="2">
-        <v>44252.94638320264</v>
+        <v>44252.95656106601</v>
       </c>
       <c r="I296" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -11886,10 +12161,10 @@
         <v>1383</v>
       </c>
       <c r="H297" s="2">
-        <v>44252.94638324883</v>
+        <v>44252.95656111215</v>
       </c>
       <c r="I297" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -11909,10 +12184,10 @@
         <v>1383</v>
       </c>
       <c r="H298" s="2">
-        <v>44252.94638327194</v>
+        <v>44252.95656114677</v>
       </c>
       <c r="I298" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -11932,10 +12207,10 @@
         <v>1383</v>
       </c>
       <c r="H299" s="2">
-        <v>44252.94638330653</v>
+        <v>44252.95656120493</v>
       </c>
       <c r="I299" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -11955,10 +12230,10 @@
         <v>1383</v>
       </c>
       <c r="H300" s="2">
-        <v>44252.94638334066</v>
+        <v>44252.95656128578</v>
       </c>
       <c r="I300" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -11981,10 +12256,10 @@
         <v>1383</v>
       </c>
       <c r="H301" s="2">
-        <v>44252.94638337578</v>
+        <v>44252.95656135483</v>
       </c>
       <c r="I301" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -12007,10 +12282,10 @@
         <v>1383</v>
       </c>
       <c r="H302" s="2">
-        <v>44252.9463834104</v>
+        <v>44252.95656141231</v>
       </c>
       <c r="I302" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -12030,10 +12305,10 @@
         <v>1383</v>
       </c>
       <c r="H303" s="2">
-        <v>44252.94638346111</v>
+        <v>44252.95656145844</v>
       </c>
       <c r="I303" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -12056,10 +12331,10 @@
         <v>1383</v>
       </c>
       <c r="H304" s="2">
-        <v>44252.94638350717</v>
+        <v>44252.95656149305</v>
       </c>
       <c r="I304" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -12082,10 +12357,10 @@
         <v>1383</v>
       </c>
       <c r="H305" s="2">
-        <v>44252.94638354185</v>
+        <v>44252.95656153921</v>
       </c>
       <c r="I305" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -12105,10 +12380,10 @@
         <v>1383</v>
       </c>
       <c r="H306" s="2">
-        <v>44252.94638357604</v>
+        <v>44252.95656159697</v>
       </c>
       <c r="I306" s="2">
-        <v>43521.94637731482</v>
+        <v>43521.95655092593</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -12128,10 +12403,10 @@
         <v>1383</v>
       </c>
       <c r="H307" s="2">
-        <v>44252.9466345236</v>
+        <v>44252.9568454753</v>
       </c>
       <c r="I307" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -12151,10 +12426,10 @@
         <v>1383</v>
       </c>
       <c r="H308" s="2">
-        <v>44252.94663459413</v>
+        <v>44252.95684552147</v>
       </c>
       <c r="I308" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -12177,10 +12452,10 @@
         <v>1383</v>
       </c>
       <c r="H309" s="2">
-        <v>44252.94663465062</v>
+        <v>44252.95684556764</v>
       </c>
       <c r="I309" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -12200,10 +12475,10 @@
         <v>1383</v>
       </c>
       <c r="H310" s="2">
-        <v>44252.9466346968</v>
+        <v>44252.95684562536</v>
       </c>
       <c r="I310" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -12226,10 +12501,10 @@
         <v>1383</v>
       </c>
       <c r="H311" s="2">
-        <v>44252.94663475458</v>
+        <v>44252.95684567153</v>
       </c>
       <c r="I311" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -12252,10 +12527,10 @@
         <v>1383</v>
       </c>
       <c r="H312" s="2">
-        <v>44252.94663480082</v>
+        <v>44252.95684571769</v>
       </c>
       <c r="I312" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -12278,10 +12553,10 @@
         <v>1383</v>
       </c>
       <c r="H313" s="2">
-        <v>44252.94663485873</v>
+        <v>44252.95684575233</v>
       </c>
       <c r="I313" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -12304,10 +12579,10 @@
         <v>1383</v>
       </c>
       <c r="H314" s="2">
-        <v>44252.94663490469</v>
+        <v>44252.95684581005</v>
       </c>
       <c r="I314" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -12330,10 +12605,10 @@
         <v>1383</v>
       </c>
       <c r="H315" s="2">
-        <v>44252.94663496249</v>
+        <v>44252.95684584467</v>
       </c>
       <c r="I315" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -12356,10 +12631,10 @@
         <v>1383</v>
       </c>
       <c r="H316" s="2">
-        <v>44252.94663499712</v>
+        <v>44252.95684589085</v>
       </c>
       <c r="I316" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -12382,10 +12657,10 @@
         <v>1383</v>
       </c>
       <c r="H317" s="2">
-        <v>44252.94663505537</v>
+        <v>44252.95684594857</v>
       </c>
       <c r="I317" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -12408,10 +12683,10 @@
         <v>1383</v>
       </c>
       <c r="H318" s="2">
-        <v>44252.94663510106</v>
+        <v>44252.95684599473</v>
       </c>
       <c r="I318" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -12431,10 +12706,10 @@
         <v>1383</v>
       </c>
       <c r="H319" s="2">
-        <v>44252.94663514724</v>
+        <v>44252.95684604091</v>
       </c>
       <c r="I319" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -12457,10 +12732,10 @@
         <v>1383</v>
       </c>
       <c r="H320" s="2">
-        <v>44252.94663519348</v>
+        <v>44252.95684607555</v>
       </c>
       <c r="I320" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -12483,10 +12758,10 @@
         <v>1383</v>
       </c>
       <c r="H321" s="2">
-        <v>44252.94663523964</v>
+        <v>44252.95684612171</v>
       </c>
       <c r="I321" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -12509,10 +12784,10 @@
         <v>1383</v>
       </c>
       <c r="H322" s="2">
-        <v>44252.94663528633</v>
+        <v>44252.95684616803</v>
       </c>
       <c r="I322" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -12535,10 +12810,10 @@
         <v>1383</v>
       </c>
       <c r="H323" s="2">
-        <v>44252.94663534358</v>
+        <v>44252.95684622559</v>
       </c>
       <c r="I323" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -12561,10 +12836,10 @@
         <v>1383</v>
       </c>
       <c r="H324" s="2">
-        <v>44252.9466353782</v>
+        <v>44252.95684626021</v>
       </c>
       <c r="I324" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -12587,10 +12862,10 @@
         <v>1383</v>
       </c>
       <c r="H325" s="2">
-        <v>44252.94663542697</v>
+        <v>44252.95684629484</v>
       </c>
       <c r="I325" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -12613,10 +12888,10 @@
         <v>1383</v>
       </c>
       <c r="H326" s="2">
-        <v>44252.94663547313</v>
+        <v>44252.95684634104</v>
       </c>
       <c r="I326" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -12639,10 +12914,10 @@
         <v>1383</v>
       </c>
       <c r="H327" s="2">
-        <v>44252.94663553085</v>
+        <v>44252.95684639875</v>
       </c>
       <c r="I327" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -12665,10 +12940,10 @@
         <v>1383</v>
       </c>
       <c r="H328" s="2">
-        <v>44252.94663556549</v>
+        <v>44252.95684643338</v>
       </c>
       <c r="I328" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -12688,10 +12963,10 @@
         <v>1383</v>
       </c>
       <c r="H329" s="2">
-        <v>44252.94663561165</v>
+        <v>44252.95684647955</v>
       </c>
       <c r="I329" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -12711,10 +12986,10 @@
         <v>1383</v>
       </c>
       <c r="H330" s="2">
-        <v>44252.94663565787</v>
+        <v>44252.95684652573</v>
       </c>
       <c r="I330" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -12737,10 +13012,10 @@
         <v>1383</v>
       </c>
       <c r="H331" s="2">
-        <v>44252.94663569253</v>
+        <v>44252.9568465719</v>
       </c>
       <c r="I331" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -12763,10 +13038,10 @@
         <v>1383</v>
       </c>
       <c r="H332" s="2">
-        <v>44252.94663573867</v>
+        <v>44252.95684661806</v>
       </c>
       <c r="I332" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -12789,10 +13064,10 @@
         <v>1383</v>
       </c>
       <c r="H333" s="2">
-        <v>44252.94663577329</v>
+        <v>44252.95684666424</v>
       </c>
       <c r="I333" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -12815,10 +13090,10 @@
         <v>1383</v>
       </c>
       <c r="H334" s="2">
-        <v>44252.94663581947</v>
+        <v>44252.95684671042</v>
       </c>
       <c r="I334" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -12841,10 +13116,10 @@
         <v>1383</v>
       </c>
       <c r="H335" s="2">
-        <v>44252.9466358541</v>
+        <v>44252.9568467566</v>
       </c>
       <c r="I335" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -12864,10 +13139,10 @@
         <v>1383</v>
       </c>
       <c r="H336" s="2">
-        <v>44252.94663590027</v>
+        <v>44252.95684680276</v>
       </c>
       <c r="I336" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -12890,10 +13165,10 @@
         <v>1383</v>
       </c>
       <c r="H337" s="2">
-        <v>44252.94663593491</v>
+        <v>44252.95684684894</v>
       </c>
       <c r="I337" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -12913,10 +13188,10 @@
         <v>1383</v>
       </c>
       <c r="H338" s="2">
-        <v>44252.94663596953</v>
+        <v>44252.95684689512</v>
       </c>
       <c r="I338" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -12939,10 +13214,10 @@
         <v>1383</v>
       </c>
       <c r="H339" s="2">
-        <v>44252.94663601571</v>
+        <v>44252.95684692974</v>
       </c>
       <c r="I339" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -12965,10 +13240,10 @@
         <v>1383</v>
       </c>
       <c r="H340" s="2">
-        <v>44252.94663605034</v>
+        <v>44252.95684697592</v>
       </c>
       <c r="I340" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -12991,10 +13266,10 @@
         <v>1383</v>
       </c>
       <c r="H341" s="2">
-        <v>44252.9466360965</v>
+        <v>44252.95684702208</v>
       </c>
       <c r="I341" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -13014,10 +13289,10 @@
         <v>1383</v>
       </c>
       <c r="H342" s="2">
-        <v>44252.94663613156</v>
+        <v>44252.95684706825</v>
       </c>
       <c r="I342" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -13037,10 +13312,10 @@
         <v>1383</v>
       </c>
       <c r="H343" s="2">
-        <v>44252.94663615463</v>
+        <v>44252.95684711442</v>
       </c>
       <c r="I343" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -13063,10 +13338,10 @@
         <v>1383</v>
       </c>
       <c r="H344" s="2">
-        <v>44252.94663618931</v>
+        <v>44252.95684714905</v>
       </c>
       <c r="I344" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -13086,10 +13361,10 @@
         <v>1383</v>
       </c>
       <c r="H345" s="2">
-        <v>44252.94663623502</v>
+        <v>44252.95684719523</v>
       </c>
       <c r="I345" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -13112,10 +13387,10 @@
         <v>1383</v>
       </c>
       <c r="H346" s="2">
-        <v>44252.94663627006</v>
+        <v>44252.95684725295</v>
       </c>
       <c r="I346" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -13138,10 +13413,10 @@
         <v>1383</v>
       </c>
       <c r="H347" s="2">
-        <v>44252.94663629313</v>
+        <v>44252.95684728757</v>
       </c>
       <c r="I347" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -13161,10 +13436,10 @@
         <v>1383</v>
       </c>
       <c r="H348" s="2">
-        <v>44252.94663632779</v>
+        <v>44252.95684733375</v>
       </c>
       <c r="I348" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -13187,10 +13462,10 @@
         <v>1383</v>
       </c>
       <c r="H349" s="2">
-        <v>44252.94663637393</v>
+        <v>44252.95684737992</v>
       </c>
       <c r="I349" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -13210,10 +13485,10 @@
         <v>1383</v>
       </c>
       <c r="H350" s="2">
-        <v>44252.94663640861</v>
+        <v>44252.95684741455</v>
       </c>
       <c r="I350" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -13233,10 +13508,10 @@
         <v>1383</v>
       </c>
       <c r="H351" s="2">
-        <v>44252.94663643165</v>
+        <v>44252.95684746073</v>
       </c>
       <c r="I351" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -13256,10 +13531,10 @@
         <v>1383</v>
       </c>
       <c r="H352" s="2">
-        <v>44252.94663646623</v>
+        <v>44252.95684749536</v>
       </c>
       <c r="I352" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -13282,10 +13557,10 @@
         <v>1383</v>
       </c>
       <c r="H353" s="2">
-        <v>44252.94663650091</v>
+        <v>44252.95684755307</v>
       </c>
       <c r="I353" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -13308,10 +13583,10 @@
         <v>1383</v>
       </c>
       <c r="H354" s="2">
-        <v>44252.94663653555</v>
+        <v>44252.95684758769</v>
       </c>
       <c r="I354" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -13331,10 +13606,10 @@
         <v>1383</v>
       </c>
       <c r="H355" s="2">
-        <v>44252.9466365702</v>
+        <v>44252.95684764542</v>
       </c>
       <c r="I355" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -13354,10 +13629,10 @@
         <v>1383</v>
       </c>
       <c r="H356" s="2">
-        <v>44252.94663660484</v>
+        <v>44252.95684768005</v>
       </c>
       <c r="I356" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -13377,10 +13652,10 @@
         <v>1383</v>
       </c>
       <c r="H357" s="2">
-        <v>44252.94663663947</v>
+        <v>44252.95684773777</v>
       </c>
       <c r="I357" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -13400,10 +13675,10 @@
         <v>1383</v>
       </c>
       <c r="H358" s="2">
-        <v>44252.94663667409</v>
+        <v>44252.95684778393</v>
       </c>
       <c r="I358" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -13423,10 +13698,10 @@
         <v>1383</v>
       </c>
       <c r="H359" s="2">
-        <v>44252.94663670875</v>
+        <v>44252.95684783009</v>
       </c>
       <c r="I359" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -13446,10 +13721,10 @@
         <v>1383</v>
       </c>
       <c r="H360" s="2">
-        <v>44252.94663674338</v>
+        <v>44252.95684786472</v>
       </c>
       <c r="I360" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -13472,10 +13747,10 @@
         <v>1383</v>
       </c>
       <c r="H361" s="2">
-        <v>44252.94663677799</v>
+        <v>44252.95684792246</v>
       </c>
       <c r="I361" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -13495,10 +13770,10 @@
         <v>1383</v>
       </c>
       <c r="H362" s="2">
-        <v>44252.94663681317</v>
+        <v>44252.95684796863</v>
       </c>
       <c r="I362" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -13521,10 +13796,10 @@
         <v>1383</v>
       </c>
       <c r="H363" s="2">
-        <v>44252.94663684773</v>
+        <v>44252.95684802634</v>
       </c>
       <c r="I363" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -13544,10 +13819,10 @@
         <v>1383</v>
       </c>
       <c r="H364" s="2">
-        <v>44252.94663688193</v>
+        <v>44252.95684807251</v>
       </c>
       <c r="I364" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -13570,10 +13845,10 @@
         <v>1383</v>
       </c>
       <c r="H365" s="2">
-        <v>44252.94663692835</v>
+        <v>44252.95684811869</v>
       </c>
       <c r="I365" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -13593,10 +13868,10 @@
         <v>1383</v>
       </c>
       <c r="H366" s="2">
-        <v>44252.9466369747</v>
+        <v>44252.95684816487</v>
       </c>
       <c r="I366" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -13616,10 +13891,10 @@
         <v>1383</v>
       </c>
       <c r="H367" s="2">
-        <v>44252.94663699781</v>
+        <v>44252.95684819948</v>
       </c>
       <c r="I367" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -13639,10 +13914,10 @@
         <v>1383</v>
       </c>
       <c r="H368" s="2">
-        <v>44252.94663703245</v>
+        <v>44252.95684823412</v>
       </c>
       <c r="I368" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -13665,10 +13940,10 @@
         <v>1383</v>
       </c>
       <c r="H369" s="2">
-        <v>44252.94663706703</v>
+        <v>44252.95684828029</v>
       </c>
       <c r="I369" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -13691,10 +13966,10 @@
         <v>1383</v>
       </c>
       <c r="H370" s="2">
-        <v>44252.94663710167</v>
+        <v>44252.95684832646</v>
       </c>
       <c r="I370" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -13714,10 +13989,10 @@
         <v>1383</v>
       </c>
       <c r="H371" s="2">
-        <v>44252.94663714786</v>
+        <v>44252.95684837285</v>
       </c>
       <c r="I371" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -13737,10 +14012,10 @@
         <v>1383</v>
       </c>
       <c r="H372" s="2">
-        <v>44252.94663718247</v>
+        <v>44252.95684841881</v>
       </c>
       <c r="I372" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -13763,10 +14038,10 @@
         <v>1383</v>
       </c>
       <c r="H373" s="2">
-        <v>44252.94663720559</v>
+        <v>44252.95684846498</v>
       </c>
       <c r="I373" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -13789,10 +14064,10 @@
         <v>1383</v>
       </c>
       <c r="H374" s="2">
-        <v>44252.94663724019</v>
+        <v>44252.95684849966</v>
       </c>
       <c r="I374" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -13812,10 +14087,10 @@
         <v>1383</v>
       </c>
       <c r="H375" s="2">
-        <v>44252.94663727438</v>
+        <v>44252.95684854584</v>
       </c>
       <c r="I375" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -13838,10 +14113,10 @@
         <v>1383</v>
       </c>
       <c r="H376" s="2">
-        <v>44252.94663730945</v>
+        <v>44252.95684859257</v>
       </c>
       <c r="I376" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -13861,10 +14136,10 @@
         <v>1383</v>
       </c>
       <c r="H377" s="2">
-        <v>44252.94663734409</v>
+        <v>44252.95684863824</v>
       </c>
       <c r="I377" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -13887,10 +14162,10 @@
         <v>1383</v>
       </c>
       <c r="H378" s="2">
-        <v>44252.94663737899</v>
+        <v>44252.95684867287</v>
       </c>
       <c r="I378" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -13910,10 +14185,10 @@
         <v>1383</v>
       </c>
       <c r="H379" s="2">
-        <v>44252.94663741335</v>
+        <v>44252.95684873058</v>
       </c>
       <c r="I379" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -13936,10 +14211,10 @@
         <v>1383</v>
       </c>
       <c r="H380" s="2">
-        <v>44252.94663744755</v>
+        <v>44252.95684877675</v>
       </c>
       <c r="I380" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -13959,10 +14234,10 @@
         <v>1383</v>
       </c>
       <c r="H381" s="2">
-        <v>44252.94663748218</v>
+        <v>44252.95684882349</v>
       </c>
       <c r="I381" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -13985,10 +14260,10 @@
         <v>1383</v>
       </c>
       <c r="H382" s="2">
-        <v>44252.9466375168</v>
+        <v>44252.95684886914</v>
       </c>
       <c r="I382" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -14008,10 +14283,10 @@
         <v>1383</v>
       </c>
       <c r="H383" s="2">
-        <v>44252.94663755182</v>
+        <v>44252.95684891531</v>
       </c>
       <c r="I383" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -14034,10 +14309,10 @@
         <v>1383</v>
       </c>
       <c r="H384" s="2">
-        <v>44252.94663758645</v>
+        <v>44252.95684897309</v>
       </c>
       <c r="I384" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -14057,10 +14332,10 @@
         <v>1383</v>
       </c>
       <c r="H385" s="2">
-        <v>44252.94663762097</v>
+        <v>44252.95684900772</v>
       </c>
       <c r="I385" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -14080,10 +14355,10 @@
         <v>1383</v>
       </c>
       <c r="H386" s="2">
-        <v>44252.9466376557</v>
+        <v>44252.9568490655</v>
       </c>
       <c r="I386" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -14103,10 +14378,10 @@
         <v>1383</v>
       </c>
       <c r="H387" s="2">
-        <v>44252.94663767878</v>
+        <v>44252.95684912321</v>
       </c>
       <c r="I387" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -14126,10 +14401,10 @@
         <v>1383</v>
       </c>
       <c r="H388" s="2">
-        <v>44252.94663772459</v>
+        <v>44252.95684915798</v>
       </c>
       <c r="I388" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -14152,10 +14427,10 @@
         <v>1383</v>
       </c>
       <c r="H389" s="2">
-        <v>44252.94663775962</v>
+        <v>44252.95684920406</v>
       </c>
       <c r="I389" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -14178,10 +14453,10 @@
         <v>1383</v>
       </c>
       <c r="H390" s="2">
-        <v>44252.94663779422</v>
+        <v>44252.95684925024</v>
       </c>
       <c r="I390" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -14201,10 +14476,10 @@
         <v>1383</v>
       </c>
       <c r="H391" s="2">
-        <v>44252.94663781729</v>
+        <v>44252.95684929647</v>
       </c>
       <c r="I391" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -14224,10 +14499,10 @@
         <v>1383</v>
       </c>
       <c r="H392" s="2">
-        <v>44252.94663786311</v>
+        <v>44252.95684934264</v>
       </c>
       <c r="I392" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -14247,10 +14522,10 @@
         <v>1383</v>
       </c>
       <c r="H393" s="2">
-        <v>44252.94663789815</v>
+        <v>44252.95684938881</v>
       </c>
       <c r="I393" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -14270,10 +14545,10 @@
         <v>1383</v>
       </c>
       <c r="H394" s="2">
-        <v>44252.94663793236</v>
+        <v>44252.95684943505</v>
       </c>
       <c r="I394" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -14293,10 +14568,10 @@
         <v>1383</v>
       </c>
       <c r="H395" s="2">
-        <v>44252.94663797325</v>
+        <v>44252.95684948121</v>
       </c>
       <c r="I395" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -14319,10 +14594,10 @@
         <v>1383</v>
       </c>
       <c r="H396" s="2">
-        <v>44252.94663800827</v>
+        <v>44252.95684953899</v>
       </c>
       <c r="I396" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -14345,10 +14620,10 @@
         <v>1383</v>
       </c>
       <c r="H397" s="2">
-        <v>44252.94663805448</v>
+        <v>44252.95684957361</v>
       </c>
       <c r="I397" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -14368,10 +14643,10 @@
         <v>1383</v>
       </c>
       <c r="H398" s="2">
-        <v>44252.94663808876</v>
+        <v>44252.95684961978</v>
       </c>
       <c r="I398" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -14391,10 +14666,10 @@
         <v>1383</v>
       </c>
       <c r="H399" s="2">
-        <v>44252.94663813502</v>
+        <v>44252.95684966602</v>
       </c>
       <c r="I399" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -14414,10 +14689,10 @@
         <v>1383</v>
       </c>
       <c r="H400" s="2">
-        <v>44252.94663815832</v>
+        <v>44252.95684971219</v>
       </c>
       <c r="I400" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -14437,10 +14712,10 @@
         <v>1383</v>
       </c>
       <c r="H401" s="2">
-        <v>44252.9466382041</v>
+        <v>44252.95684975841</v>
       </c>
       <c r="I401" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -14460,10 +14735,10 @@
         <v>1383</v>
       </c>
       <c r="H402" s="2">
-        <v>44252.94663823874</v>
+        <v>44252.95684980464</v>
       </c>
       <c r="I402" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -14483,10 +14758,10 @@
         <v>1383</v>
       </c>
       <c r="H403" s="2">
-        <v>44252.94663829646</v>
+        <v>44252.95684986313</v>
       </c>
       <c r="I403" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -14509,10 +14784,10 @@
         <v>1383</v>
       </c>
       <c r="H404" s="2">
-        <v>44252.94663834263</v>
+        <v>44252.95684990853</v>
       </c>
       <c r="I404" s="2">
-        <v>43521.94663194445</v>
+        <v>43521.95684027778</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -14532,10 +14807,10 @@
         <v>1383</v>
       </c>
       <c r="H405" s="2">
-        <v>44252.94686098453</v>
+        <v>44252.95708680075</v>
       </c>
       <c r="I405" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -14555,10 +14830,10 @@
         <v>1383</v>
       </c>
       <c r="H406" s="2">
-        <v>44252.94686101866</v>
+        <v>44252.95708683537</v>
       </c>
       <c r="I406" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -14578,10 +14853,10 @@
         <v>1383</v>
       </c>
       <c r="H407" s="2">
-        <v>44252.94686105377</v>
+        <v>44252.95708685845</v>
       </c>
       <c r="I407" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -14601,10 +14876,10 @@
         <v>1383</v>
       </c>
       <c r="H408" s="2">
-        <v>44252.94686108841</v>
+        <v>44252.95708690463</v>
       </c>
       <c r="I408" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -14624,10 +14899,10 @@
         <v>1383</v>
       </c>
       <c r="H409" s="2">
-        <v>44252.94686112296</v>
+        <v>44252.95708693926</v>
       </c>
       <c r="I409" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -14647,10 +14922,10 @@
         <v>1383</v>
       </c>
       <c r="H410" s="2">
-        <v>44252.9468611577</v>
+        <v>44252.95708697396</v>
       </c>
       <c r="I410" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -14673,10 +14948,10 @@
         <v>1383</v>
       </c>
       <c r="H411" s="2">
-        <v>44252.94686118074</v>
+        <v>44252.95708700852</v>
       </c>
       <c r="I411" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -14696,10 +14971,10 @@
         <v>1383</v>
       </c>
       <c r="H412" s="2">
-        <v>44252.94686121515</v>
+        <v>44252.95708704315</v>
       </c>
       <c r="I412" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -14719,10 +14994,10 @@
         <v>1383</v>
       </c>
       <c r="H413" s="2">
-        <v>44252.94686125001</v>
+        <v>44252.95708710087</v>
       </c>
       <c r="I413" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -14742,10 +15017,10 @@
         <v>1383</v>
       </c>
       <c r="H414" s="2">
-        <v>44252.94686128464</v>
+        <v>44252.95708713549</v>
       </c>
       <c r="I414" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -14768,10 +15043,10 @@
         <v>1383</v>
       </c>
       <c r="H415" s="2">
-        <v>44252.94686131933</v>
+        <v>44252.95708718167</v>
       </c>
       <c r="I415" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -14794,10 +15069,10 @@
         <v>1383</v>
       </c>
       <c r="H416" s="2">
-        <v>44252.94686135382</v>
+        <v>44252.95708721629</v>
       </c>
       <c r="I416" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -14817,10 +15092,10 @@
         <v>1383</v>
       </c>
       <c r="H417" s="2">
-        <v>44252.94686138853</v>
+        <v>44252.95708725105</v>
       </c>
       <c r="I417" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -14840,10 +15115,10 @@
         <v>1383</v>
       </c>
       <c r="H418" s="2">
-        <v>44252.94686142314</v>
+        <v>44252.95708728555</v>
       </c>
       <c r="I418" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -14863,10 +15138,10 @@
         <v>1383</v>
       </c>
       <c r="H419" s="2">
-        <v>44252.9468614578</v>
+        <v>44252.95708732019</v>
       </c>
       <c r="I419" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -14889,10 +15164,10 @@
         <v>1383</v>
       </c>
       <c r="H420" s="2">
-        <v>44252.94686149242</v>
+        <v>44252.95708737148</v>
       </c>
       <c r="I420" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -14912,10 +15187,10 @@
         <v>1383</v>
       </c>
       <c r="H421" s="2">
-        <v>44252.94686152705</v>
+        <v>44252.95708740611</v>
       </c>
       <c r="I421" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -14935,10 +15210,10 @@
         <v>1383</v>
       </c>
       <c r="H422" s="2">
-        <v>44252.94686156139</v>
+        <v>44252.95708745229</v>
       </c>
       <c r="I422" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -14961,10 +15236,10 @@
         <v>1383</v>
       </c>
       <c r="H423" s="2">
-        <v>44252.9468615963</v>
+        <v>44252.95708748692</v>
       </c>
       <c r="I423" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -14984,10 +15259,10 @@
         <v>1383</v>
       </c>
       <c r="H424" s="2">
-        <v>44252.94686163094</v>
+        <v>44252.95708752155</v>
       </c>
       <c r="I424" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -15007,10 +15282,10 @@
         <v>1383</v>
       </c>
       <c r="H425" s="2">
-        <v>44252.94686165403</v>
+        <v>44252.95708755618</v>
       </c>
       <c r="I425" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -15030,10 +15305,10 @@
         <v>1383</v>
       </c>
       <c r="H426" s="2">
-        <v>44252.9468616887</v>
+        <v>44252.95708760245</v>
       </c>
       <c r="I426" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -15053,10 +15328,10 @@
         <v>1383</v>
       </c>
       <c r="H427" s="2">
-        <v>44252.94686172325</v>
+        <v>44252.95708763701</v>
       </c>
       <c r="I427" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -15076,10 +15351,10 @@
         <v>1383</v>
       </c>
       <c r="H428" s="2">
-        <v>44252.94686175792</v>
+        <v>44252.95708767161</v>
       </c>
       <c r="I428" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -15099,10 +15374,10 @@
         <v>1383</v>
       </c>
       <c r="H429" s="2">
-        <v>44252.94686179251</v>
+        <v>44252.95708771778</v>
       </c>
       <c r="I429" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -15122,10 +15397,10 @@
         <v>1383</v>
       </c>
       <c r="H430" s="2">
-        <v>44252.94686182715</v>
+        <v>44252.95708775241</v>
       </c>
       <c r="I430" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -15145,10 +15420,10 @@
         <v>1383</v>
       </c>
       <c r="H431" s="2">
-        <v>44252.94686185023</v>
+        <v>44252.95708778715</v>
       </c>
       <c r="I431" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -15168,10 +15443,10 @@
         <v>1383</v>
       </c>
       <c r="H432" s="2">
-        <v>44252.94686189594</v>
+        <v>44252.95708782167</v>
       </c>
       <c r="I432" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -15191,10 +15466,10 @@
         <v>1383</v>
       </c>
       <c r="H433" s="2">
-        <v>44252.94686193057</v>
+        <v>44252.9570878563</v>
       </c>
       <c r="I433" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -15214,10 +15489,10 @@
         <v>1383</v>
       </c>
       <c r="H434" s="2">
-        <v>44252.94686195366</v>
+        <v>44252.95708789093</v>
       </c>
       <c r="I434" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -15240,10 +15515,10 @@
         <v>1383</v>
       </c>
       <c r="H435" s="2">
-        <v>44252.94686198828</v>
+        <v>44252.95708793712</v>
       </c>
       <c r="I435" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -15263,10 +15538,10 @@
         <v>1383</v>
       </c>
       <c r="H436" s="2">
-        <v>44252.9468620229</v>
+        <v>44252.95708798329</v>
       </c>
       <c r="I436" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -15286,10 +15561,10 @@
         <v>1383</v>
       </c>
       <c r="H437" s="2">
-        <v>44252.94686205754</v>
+        <v>44252.95708801792</v>
       </c>
       <c r="I437" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -15309,10 +15584,10 @@
         <v>1383</v>
       </c>
       <c r="H438" s="2">
-        <v>44252.94686208062</v>
+        <v>44252.95708805254</v>
       </c>
       <c r="I438" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -15332,10 +15607,10 @@
         <v>1383</v>
       </c>
       <c r="H439" s="2">
-        <v>44252.9468621268</v>
+        <v>44252.95708808716</v>
       </c>
       <c r="I439" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -15355,10 +15630,10 @@
         <v>1383</v>
       </c>
       <c r="H440" s="2">
-        <v>44252.94686216154</v>
+        <v>44252.95708813337</v>
       </c>
       <c r="I440" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -15378,10 +15653,10 @@
         <v>1383</v>
       </c>
       <c r="H441" s="2">
-        <v>44252.94686218452</v>
+        <v>44252.95708816819</v>
       </c>
       <c r="I441" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -15404,10 +15679,10 @@
         <v>1383</v>
       </c>
       <c r="H442" s="2">
-        <v>44252.94686221914</v>
+        <v>44252.95708821414</v>
       </c>
       <c r="I442" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -15427,10 +15702,10 @@
         <v>1383</v>
       </c>
       <c r="H443" s="2">
-        <v>44252.94686225378</v>
+        <v>44252.95708824876</v>
       </c>
       <c r="I443" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -15450,10 +15725,10 @@
         <v>1383</v>
       </c>
       <c r="H444" s="2">
-        <v>44252.94686228846</v>
+        <v>44252.95708829494</v>
       </c>
       <c r="I444" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -15473,10 +15748,10 @@
         <v>1383</v>
       </c>
       <c r="H445" s="2">
-        <v>44252.94686232304</v>
+        <v>44252.95708834111</v>
       </c>
       <c r="I445" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -15496,10 +15771,10 @@
         <v>1383</v>
       </c>
       <c r="H446" s="2">
-        <v>44252.94686236922</v>
+        <v>44252.9570883642</v>
       </c>
       <c r="I446" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -15519,10 +15794,10 @@
         <v>1383</v>
       </c>
       <c r="H447" s="2">
-        <v>44252.94686240384</v>
+        <v>44252.95708839883</v>
       </c>
       <c r="I447" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -15545,10 +15820,10 @@
         <v>1383</v>
       </c>
       <c r="H448" s="2">
-        <v>44252.94686242692</v>
+        <v>44252.95708844501</v>
       </c>
       <c r="I448" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -15568,10 +15843,10 @@
         <v>1383</v>
       </c>
       <c r="H449" s="2">
-        <v>44252.9468624731</v>
+        <v>44252.95708847964</v>
       </c>
       <c r="I449" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="450" spans="1:9">
@@ -15591,10 +15866,10 @@
         <v>1383</v>
       </c>
       <c r="H450" s="2">
-        <v>44252.94686250772</v>
+        <v>44252.95708854685</v>
       </c>
       <c r="I450" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="451" spans="1:9">
@@ -15617,10 +15892,10 @@
         <v>1383</v>
       </c>
       <c r="H451" s="2">
-        <v>44252.94686254235</v>
+        <v>44252.95708859302</v>
       </c>
       <c r="I451" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="452" spans="1:9">
@@ -15640,10 +15915,10 @@
         <v>1383</v>
       </c>
       <c r="H452" s="2">
-        <v>44252.94686261141</v>
+        <v>44252.95708863926</v>
       </c>
       <c r="I452" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="453" spans="1:9">
@@ -15663,10 +15938,10 @@
         <v>1383</v>
       </c>
       <c r="H453" s="2">
-        <v>44252.94686265747</v>
+        <v>44252.95708868543</v>
       </c>
       <c r="I453" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="454" spans="1:9">
@@ -15689,10 +15964,10 @@
         <v>1383</v>
       </c>
       <c r="H454" s="2">
-        <v>44252.94686269209</v>
+        <v>44252.95708873171</v>
       </c>
       <c r="I454" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="455" spans="1:9">
@@ -15715,10 +15990,10 @@
         <v>1383</v>
       </c>
       <c r="H455" s="2">
-        <v>44252.94686272293</v>
+        <v>44252.95708878936</v>
       </c>
       <c r="I455" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="456" spans="1:9">
@@ -15738,10 +16013,10 @@
         <v>1383</v>
       </c>
       <c r="H456" s="2">
-        <v>44252.94686275769</v>
+        <v>44252.95708885862</v>
       </c>
       <c r="I456" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="457" spans="1:9">
@@ -15761,10 +16036,10 @@
         <v>1383</v>
       </c>
       <c r="H457" s="2">
-        <v>44252.94686280387</v>
+        <v>44252.95708891633</v>
       </c>
       <c r="I457" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="458" spans="1:9">
@@ -15787,10 +16062,10 @@
         <v>1383</v>
       </c>
       <c r="H458" s="2">
-        <v>44252.94686283854</v>
+        <v>44252.95708897405</v>
       </c>
       <c r="I458" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="459" spans="1:9">
@@ -15810,10 +16085,10 @@
         <v>1383</v>
       </c>
       <c r="H459" s="2">
-        <v>44252.94686286173</v>
+        <v>44252.95708900868</v>
       </c>
       <c r="I459" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="460" spans="1:9">
@@ -15833,10 +16108,10 @@
         <v>1383</v>
       </c>
       <c r="H460" s="2">
-        <v>44252.94686289634</v>
+        <v>44252.95708905502</v>
       </c>
       <c r="I460" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="461" spans="1:9">
@@ -15856,10 +16131,10 @@
         <v>1383</v>
       </c>
       <c r="H461" s="2">
-        <v>44252.94686293096</v>
+        <v>44252.95708910144</v>
       </c>
       <c r="I461" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="462" spans="1:9">
@@ -15879,10 +16154,10 @@
         <v>1383</v>
       </c>
       <c r="H462" s="2">
-        <v>44252.94686296559</v>
+        <v>44252.95708914803</v>
       </c>
       <c r="I462" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="463" spans="1:9">
@@ -15902,10 +16177,10 @@
         <v>1383</v>
       </c>
       <c r="H463" s="2">
-        <v>44252.94686300024</v>
+        <v>44252.95708918273</v>
       </c>
       <c r="I463" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -15925,10 +16200,10 @@
         <v>1383</v>
       </c>
       <c r="H464" s="2">
-        <v>44252.94686303483</v>
+        <v>44252.95708924066</v>
       </c>
       <c r="I464" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="465" spans="1:9">
@@ -15951,10 +16226,10 @@
         <v>1383</v>
       </c>
       <c r="H465" s="2">
-        <v>44252.94686306948</v>
+        <v>44252.95708928692</v>
       </c>
       <c r="I465" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="466" spans="1:9">
@@ -15974,10 +16249,10 @@
         <v>1383</v>
       </c>
       <c r="H466" s="2">
-        <v>44252.94686310411</v>
+        <v>44252.95708933444</v>
       </c>
       <c r="I466" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="467" spans="1:9">
@@ -15997,10 +16272,10 @@
         <v>1383</v>
       </c>
       <c r="H467" s="2">
-        <v>44252.94686312721</v>
+        <v>44252.95708938095</v>
       </c>
       <c r="I467" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -16020,10 +16295,10 @@
         <v>1383</v>
       </c>
       <c r="H468" s="2">
-        <v>44252.9468631613</v>
+        <v>44252.95708941516</v>
       </c>
       <c r="I468" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -16046,10 +16321,10 @@
         <v>1383</v>
       </c>
       <c r="H469" s="2">
-        <v>44252.94686320749</v>
+        <v>44252.95708943917</v>
       </c>
       <c r="I469" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="470" spans="1:9">
@@ -16072,10 +16347,10 @@
         <v>1383</v>
       </c>
       <c r="H470" s="2">
-        <v>44252.94686324251</v>
+        <v>44252.95708948531</v>
       </c>
       <c r="I470" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -16095,10 +16370,10 @@
         <v>1383</v>
       </c>
       <c r="H471" s="2">
-        <v>44252.94686326561</v>
+        <v>44252.95708951998</v>
       </c>
       <c r="I471" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="472" spans="1:9">
@@ -16118,10 +16393,10 @@
         <v>1383</v>
       </c>
       <c r="H472" s="2">
-        <v>44252.94686330025</v>
+        <v>44252.95708955461</v>
       </c>
       <c r="I472" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="473" spans="1:9">
@@ -16141,10 +16416,10 @@
         <v>1383</v>
       </c>
       <c r="H473" s="2">
-        <v>44252.94686333458</v>
+        <v>44252.95708961231</v>
       </c>
       <c r="I473" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="474" spans="1:9">
@@ -16164,10 +16439,10 @@
         <v>1383</v>
       </c>
       <c r="H474" s="2">
-        <v>44252.94686336948</v>
+        <v>44252.9570896474</v>
       </c>
       <c r="I474" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="475" spans="1:9">
@@ -16187,10 +16462,10 @@
         <v>1383</v>
       </c>
       <c r="H475" s="2">
-        <v>44252.94686340412</v>
+        <v>44252.95708969383</v>
       </c>
       <c r="I475" s="2">
-        <v>43521.94685185186</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="476" spans="1:9">
@@ -16213,10 +16488,10 @@
         <v>1383</v>
       </c>
       <c r="H476" s="2">
-        <v>44252.94686343837</v>
+        <v>44252.95708972865</v>
       </c>
       <c r="I476" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="477" spans="1:9">
@@ -16236,10 +16511,10 @@
         <v>1383</v>
       </c>
       <c r="H477" s="2">
-        <v>44252.94686346185</v>
+        <v>44252.95708976332</v>
       </c>
       <c r="I477" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="478" spans="1:9">
@@ -16262,10 +16537,10 @@
         <v>1383</v>
       </c>
       <c r="H478" s="2">
-        <v>44252.9468635076</v>
+        <v>44252.95708980905</v>
       </c>
       <c r="I478" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="479" spans="1:9">
@@ -16288,10 +16563,10 @@
         <v>1383</v>
       </c>
       <c r="H479" s="2">
-        <v>44252.94686354291</v>
+        <v>44252.95708984423</v>
       </c>
       <c r="I479" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="480" spans="1:9">
@@ -16311,10 +16586,10 @@
         <v>1383</v>
       </c>
       <c r="H480" s="2">
-        <v>44252.94686356575</v>
+        <v>44252.95708987881</v>
       </c>
       <c r="I480" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="481" spans="1:9">
@@ -16334,10 +16609,10 @@
         <v>1383</v>
       </c>
       <c r="H481" s="2">
-        <v>44252.94686360038</v>
+        <v>44252.95708991396</v>
       </c>
       <c r="I481" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="482" spans="1:9">
@@ -16360,10 +16635,10 @@
         <v>1383</v>
       </c>
       <c r="H482" s="2">
-        <v>44252.94686363502</v>
+        <v>44252.95708995965</v>
       </c>
       <c r="I482" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="483" spans="1:9">
@@ -16386,10 +16661,10 @@
         <v>1383</v>
       </c>
       <c r="H483" s="2">
-        <v>44252.94686371537</v>
+        <v>44252.9570899833</v>
       </c>
       <c r="I483" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="484" spans="1:9">
@@ -16412,10 +16687,10 @@
         <v>1383</v>
       </c>
       <c r="H484" s="2">
-        <v>44252.94686375</v>
+        <v>44252.95709002946</v>
       </c>
       <c r="I484" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -16435,10 +16710,10 @@
         <v>1383</v>
       </c>
       <c r="H485" s="2">
-        <v>44252.94686378463</v>
+        <v>44252.95709006462</v>
       </c>
       <c r="I485" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="486" spans="1:9">
@@ -16458,10 +16733,10 @@
         <v>1383</v>
       </c>
       <c r="H486" s="2">
-        <v>44252.94686380772</v>
+        <v>44252.95709011026</v>
       </c>
       <c r="I486" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="487" spans="1:9">
@@ -16484,10 +16759,10 @@
         <v>1383</v>
       </c>
       <c r="H487" s="2">
-        <v>44252.94686384235</v>
+        <v>44252.95709015869</v>
       </c>
       <c r="I487" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="488" spans="1:9">
@@ -16507,10 +16782,10 @@
         <v>1383</v>
       </c>
       <c r="H488" s="2">
-        <v>44252.94686388852</v>
+        <v>44252.95709018212</v>
       </c>
       <c r="I488" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="489" spans="1:9">
@@ -16533,10 +16808,10 @@
         <v>1383</v>
       </c>
       <c r="H489" s="2">
-        <v>44252.94686392315</v>
+        <v>44252.95709022827</v>
       </c>
       <c r="I489" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="490" spans="1:9">
@@ -16559,10 +16834,10 @@
         <v>1383</v>
       </c>
       <c r="H490" s="2">
-        <v>44252.94686394624</v>
+        <v>44252.95709026337</v>
       </c>
       <c r="I490" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="491" spans="1:9">
@@ -16585,10 +16860,10 @@
         <v>1383</v>
       </c>
       <c r="H491" s="2">
-        <v>44252.94686398087</v>
+        <v>44252.95709030955</v>
       </c>
       <c r="I491" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="492" spans="1:9">
@@ -16611,10 +16886,10 @@
         <v>1383</v>
       </c>
       <c r="H492" s="2">
-        <v>44252.9468640155</v>
+        <v>44252.95709034418</v>
       </c>
       <c r="I492" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="493" spans="1:9">
@@ -16634,10 +16909,10 @@
         <v>1383</v>
       </c>
       <c r="H493" s="2">
-        <v>44252.94686406167</v>
+        <v>44252.95709037925</v>
       </c>
       <c r="I493" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="494" spans="1:9">
@@ -16660,10 +16935,10 @@
         <v>1383</v>
       </c>
       <c r="H494" s="2">
-        <v>44252.9468640963</v>
+        <v>44252.95709041391</v>
       </c>
       <c r="I494" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -16686,10 +16961,10 @@
         <v>1383</v>
       </c>
       <c r="H495" s="2">
-        <v>44252.94686413093</v>
+        <v>44252.95709046005</v>
       </c>
       <c r="I495" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="496" spans="1:9">
@@ -16712,10 +16987,10 @@
         <v>1383</v>
       </c>
       <c r="H496" s="2">
-        <v>44252.94686415402</v>
+        <v>44252.95709051781</v>
       </c>
       <c r="I496" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="497" spans="1:9">
@@ -16735,10 +17010,10 @@
         <v>1383</v>
       </c>
       <c r="H497" s="2">
-        <v>44252.94686418865</v>
+        <v>44252.95709055245</v>
       </c>
       <c r="I497" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="498" spans="1:9">
@@ -16758,10 +17033,10 @@
         <v>1383</v>
       </c>
       <c r="H498" s="2">
-        <v>44252.94686422328</v>
+        <v>44252.95709058401</v>
       </c>
       <c r="I498" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="499" spans="1:9">
@@ -16784,10 +17059,10 @@
         <v>1383</v>
       </c>
       <c r="H499" s="2">
-        <v>44252.94686425791</v>
+        <v>44252.95709061854</v>
       </c>
       <c r="I499" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -16807,10 +17082,10 @@
         <v>1383</v>
       </c>
       <c r="H500" s="2">
-        <v>44252.94686429253</v>
+        <v>44252.95709066527</v>
       </c>
       <c r="I500" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="501" spans="1:9">
@@ -16833,10 +17108,10 @@
         <v>1383</v>
       </c>
       <c r="H501" s="2">
-        <v>44252.94686432715</v>
+        <v>44252.95709072242</v>
       </c>
       <c r="I501" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="502" spans="1:9">
@@ -16859,10 +17134,10 @@
         <v>1383</v>
       </c>
       <c r="H502" s="2">
-        <v>44252.94686436179</v>
+        <v>44252.95709075706</v>
       </c>
       <c r="I502" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="503" spans="1:9">
@@ -16885,10 +17160,10 @@
         <v>1383</v>
       </c>
       <c r="H503" s="2">
-        <v>44252.94686439642</v>
+        <v>44252.95709079169</v>
       </c>
       <c r="I503" s="2">
-        <v>43521.94686342592</v>
+        <v>43521.95708333333</v>
       </c>
     </row>
     <row r="504" spans="1:9">
@@ -16911,10 +17186,10 @@
         <v>1383</v>
       </c>
       <c r="H504" s="2">
-        <v>44252.94707951058</v>
+        <v>44252.95732492219</v>
       </c>
       <c r="I504" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="505" spans="1:9">
@@ -16937,10 +17212,10 @@
         <v>1383</v>
       </c>
       <c r="H505" s="2">
-        <v>44252.9470795452</v>
+        <v>44252.95732495682</v>
       </c>
       <c r="I505" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="506" spans="1:9">
@@ -16963,10 +17238,10 @@
         <v>1383</v>
       </c>
       <c r="H506" s="2">
-        <v>44252.94707957987</v>
+        <v>44252.957325003</v>
       </c>
       <c r="I506" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="507" spans="1:9">
@@ -16989,10 +17264,10 @@
         <v>1383</v>
       </c>
       <c r="H507" s="2">
-        <v>44252.94707961448</v>
+        <v>44252.95732503761</v>
       </c>
       <c r="I507" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="508" spans="1:9">
@@ -17015,10 +17290,10 @@
         <v>1383</v>
       </c>
       <c r="H508" s="2">
-        <v>44252.94707964909</v>
+        <v>44252.95732508379</v>
       </c>
       <c r="I508" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="509" spans="1:9">
@@ -17038,10 +17313,10 @@
         <v>1383</v>
       </c>
       <c r="H509" s="2">
-        <v>44252.94707968371</v>
+        <v>44252.95732512999</v>
       </c>
       <c r="I509" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="510" spans="1:9">
@@ -17064,10 +17339,10 @@
         <v>1383</v>
       </c>
       <c r="H510" s="2">
-        <v>44252.94707971833</v>
+        <v>44252.95732517619</v>
       </c>
       <c r="I510" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="511" spans="1:9">
@@ -17087,10 +17362,10 @@
         <v>1383</v>
       </c>
       <c r="H511" s="2">
-        <v>44252.94707975251</v>
+        <v>44252.95732521079</v>
       </c>
       <c r="I511" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="512" spans="1:9">
@@ -17113,10 +17388,10 @@
         <v>1383</v>
       </c>
       <c r="H512" s="2">
-        <v>44252.94707978766</v>
+        <v>44252.95732526849</v>
       </c>
       <c r="I512" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="513" spans="1:9">
@@ -17139,10 +17414,10 @@
         <v>1383</v>
       </c>
       <c r="H513" s="2">
-        <v>44252.94707982225</v>
+        <v>44252.95732531467</v>
       </c>
       <c r="I513" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -17162,10 +17437,10 @@
         <v>1383</v>
       </c>
       <c r="H514" s="2">
-        <v>44252.94707984535</v>
+        <v>44252.95732536083</v>
       </c>
       <c r="I514" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="515" spans="1:9">
@@ -17188,10 +17463,10 @@
         <v>1383</v>
       </c>
       <c r="H515" s="2">
-        <v>44252.94707987994</v>
+        <v>44252.95732540701</v>
       </c>
       <c r="I515" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="516" spans="1:9">
@@ -17214,10 +17489,10 @@
         <v>1383</v>
       </c>
       <c r="H516" s="2">
-        <v>44252.94707991457</v>
+        <v>44252.95732546473</v>
       </c>
       <c r="I516" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -17240,10 +17515,10 @@
         <v>1383</v>
       </c>
       <c r="H517" s="2">
-        <v>44252.94707994921</v>
+        <v>44252.95732553398</v>
       </c>
       <c r="I517" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="518" spans="1:9">
@@ -17266,10 +17541,10 @@
         <v>1383</v>
       </c>
       <c r="H518" s="2">
-        <v>44252.94707998387</v>
+        <v>44252.95732556862</v>
       </c>
       <c r="I518" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="519" spans="1:9">
@@ -17292,10 +17567,10 @@
         <v>1383</v>
       </c>
       <c r="H519" s="2">
-        <v>44252.947080019</v>
+        <v>44252.95732560323</v>
       </c>
       <c r="I519" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="520" spans="1:9">
@@ -17318,10 +17593,10 @@
         <v>1383</v>
       </c>
       <c r="H520" s="2">
-        <v>44252.94708005362</v>
+        <v>44252.95732563787</v>
       </c>
       <c r="I520" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="521" spans="1:9">
@@ -17344,10 +17619,10 @@
         <v>1383</v>
       </c>
       <c r="H521" s="2">
-        <v>44252.94708008826</v>
+        <v>44252.95732567253</v>
       </c>
       <c r="I521" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="522" spans="1:9">
@@ -17367,10 +17642,10 @@
         <v>1383</v>
       </c>
       <c r="H522" s="2">
-        <v>44252.94708012286</v>
+        <v>44252.95732570713</v>
       </c>
       <c r="I522" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="523" spans="1:9">
@@ -17390,10 +17665,10 @@
         <v>1383</v>
       </c>
       <c r="H523" s="2">
-        <v>44252.94708015703</v>
+        <v>44252.95732574175</v>
       </c>
       <c r="I523" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="524" spans="1:9">
@@ -17416,10 +17691,10 @@
         <v>1383</v>
       </c>
       <c r="H524" s="2">
-        <v>44252.94708019224</v>
+        <v>44252.95732577638</v>
       </c>
       <c r="I524" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="525" spans="1:9">
@@ -17442,10 +17717,10 @@
         <v>1383</v>
       </c>
       <c r="H525" s="2">
-        <v>44252.94708022728</v>
+        <v>44252.95732582257</v>
       </c>
       <c r="I525" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="526" spans="1:9">
@@ -17465,10 +17740,10 @@
         <v>1383</v>
       </c>
       <c r="H526" s="2">
-        <v>44252.94708026193</v>
+        <v>44252.95732585719</v>
       </c>
       <c r="I526" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -17488,10 +17763,10 @@
         <v>1383</v>
       </c>
       <c r="H527" s="2">
-        <v>44252.94708029655</v>
+        <v>44252.95732590347</v>
       </c>
       <c r="I527" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="528" spans="1:9">
@@ -17514,10 +17789,10 @@
         <v>1383</v>
       </c>
       <c r="H528" s="2">
-        <v>44252.94708031969</v>
+        <v>44252.95732593798</v>
       </c>
       <c r="I528" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -17540,10 +17815,10 @@
         <v>1383</v>
       </c>
       <c r="H529" s="2">
-        <v>44252.94708036574</v>
+        <v>44252.95732597262</v>
       </c>
       <c r="I529" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="530" spans="1:9">
@@ -17566,10 +17841,10 @@
         <v>1383</v>
       </c>
       <c r="H530" s="2">
-        <v>44252.94708040038</v>
+        <v>44252.9573260188</v>
       </c>
       <c r="I530" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="531" spans="1:9">
@@ -17589,10 +17864,10 @@
         <v>1383</v>
       </c>
       <c r="H531" s="2">
-        <v>44252.9470804356</v>
+        <v>44252.95732605385</v>
       </c>
       <c r="I531" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="532" spans="1:9">
@@ -17612,10 +17887,10 @@
         <v>1383</v>
       </c>
       <c r="H532" s="2">
-        <v>44252.94708047024</v>
+        <v>44252.95732608846</v>
       </c>
       <c r="I532" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="533" spans="1:9">
@@ -17635,10 +17910,10 @@
         <v>1383</v>
       </c>
       <c r="H533" s="2">
-        <v>44252.94708049332</v>
+        <v>44252.95732612591</v>
       </c>
       <c r="I533" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="534" spans="1:9">
@@ -17661,10 +17936,10 @@
         <v>1383</v>
       </c>
       <c r="H534" s="2">
-        <v>44252.94708052794</v>
+        <v>44252.95732616055</v>
       </c>
       <c r="I534" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="535" spans="1:9">
@@ -17684,10 +17959,10 @@
         <v>1383</v>
       </c>
       <c r="H535" s="2">
-        <v>44252.94708057753</v>
+        <v>44252.95732619516</v>
       </c>
       <c r="I535" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="536" spans="1:9">
@@ -17707,10 +17982,10 @@
         <v>1383</v>
       </c>
       <c r="H536" s="2">
-        <v>44252.94708061265</v>
+        <v>44252.95732622938</v>
       </c>
       <c r="I536" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="537" spans="1:9">
@@ -17730,10 +18005,10 @@
         <v>1383</v>
       </c>
       <c r="H537" s="2">
-        <v>44252.94708064727</v>
+        <v>44252.95732626442</v>
       </c>
       <c r="I537" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="538" spans="1:9">
@@ -17756,10 +18031,10 @@
         <v>1383</v>
       </c>
       <c r="H538" s="2">
-        <v>44252.94708068191</v>
+        <v>44252.95732629904</v>
       </c>
       <c r="I538" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="539" spans="1:9">
@@ -17779,10 +18054,10 @@
         <v>1383</v>
       </c>
       <c r="H539" s="2">
-        <v>44252.94708071653</v>
+        <v>44252.95732632213</v>
       </c>
       <c r="I539" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="540" spans="1:9">
@@ -17802,10 +18077,10 @@
         <v>1383</v>
       </c>
       <c r="H540" s="2">
-        <v>44252.94708075116</v>
+        <v>44252.957326391</v>
       </c>
       <c r="I540" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95731481481</v>
       </c>
     </row>
     <row r="541" spans="1:9">
@@ -17825,10 +18100,10 @@
         <v>1383</v>
       </c>
       <c r="H541" s="2">
-        <v>44252.9470807858</v>
+        <v>44252.95732642563</v>
       </c>
       <c r="I541" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="542" spans="1:9">
@@ -17848,10 +18123,10 @@
         <v>1383</v>
       </c>
       <c r="H542" s="2">
-        <v>44252.94708082041</v>
+        <v>44252.95732647212</v>
       </c>
       <c r="I542" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="543" spans="1:9">
@@ -17871,10 +18146,10 @@
         <v>1383</v>
       </c>
       <c r="H543" s="2">
-        <v>44252.94708084351</v>
+        <v>44252.95732650643</v>
       </c>
       <c r="I543" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="544" spans="1:9">
@@ -17897,10 +18172,10 @@
         <v>1383</v>
       </c>
       <c r="H544" s="2">
-        <v>44252.94708087821</v>
+        <v>44252.95732657568</v>
       </c>
       <c r="I544" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="545" spans="1:9">
@@ -17923,10 +18198,10 @@
         <v>1383</v>
       </c>
       <c r="H545" s="2">
-        <v>44252.94708091277</v>
+        <v>44252.95732666805</v>
       </c>
       <c r="I545" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -17949,10 +18224,10 @@
         <v>1383</v>
       </c>
       <c r="H546" s="2">
-        <v>44252.94708094737</v>
+        <v>44252.95732674884</v>
       </c>
       <c r="I546" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="547" spans="1:9">
@@ -17975,10 +18250,10 @@
         <v>1383</v>
       </c>
       <c r="H547" s="2">
-        <v>44252.94708098199</v>
+        <v>44252.95732681824</v>
       </c>
       <c r="I547" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -17998,10 +18273,10 @@
         <v>1383</v>
       </c>
       <c r="H548" s="2">
-        <v>44252.94708101662</v>
+        <v>44252.95732689889</v>
       </c>
       <c r="I548" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="549" spans="1:9">
@@ -18024,10 +18299,10 @@
         <v>1383</v>
       </c>
       <c r="H549" s="2">
-        <v>44252.9470810508</v>
+        <v>44252.95732694506</v>
       </c>
       <c r="I549" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="550" spans="1:9">
@@ -18050,10 +18325,10 @@
         <v>1383</v>
       </c>
       <c r="H550" s="2">
-        <v>44252.94708108591</v>
+        <v>44252.95732701474</v>
       </c>
       <c r="I550" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="551" spans="1:9">
@@ -18076,10 +18351,10 @@
         <v>1383</v>
       </c>
       <c r="H551" s="2">
-        <v>44252.94708112055</v>
+        <v>44252.95732707203</v>
       </c>
       <c r="I551" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="552" spans="1:9">
@@ -18099,10 +18374,10 @@
         <v>1383</v>
       </c>
       <c r="H552" s="2">
-        <v>44252.94708115517</v>
+        <v>44252.95732711821</v>
       </c>
       <c r="I552" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="553" spans="1:9">
@@ -18122,10 +18397,10 @@
         <v>1383</v>
       </c>
       <c r="H553" s="2">
-        <v>44252.94708118981</v>
+        <v>44252.95732716437</v>
       </c>
       <c r="I553" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -18145,10 +18420,10 @@
         <v>1383</v>
       </c>
       <c r="H554" s="2">
-        <v>44252.94708121289</v>
+        <v>44252.9573272225</v>
       </c>
       <c r="I554" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="555" spans="1:9">
@@ -18168,10 +18443,10 @@
         <v>1383</v>
       </c>
       <c r="H555" s="2">
-        <v>44252.94708125856</v>
+        <v>44252.95732726826</v>
       </c>
       <c r="I555" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="556" spans="1:9">
@@ -18194,10 +18469,10 @@
         <v>1383</v>
       </c>
       <c r="H556" s="2">
-        <v>44252.9470812932</v>
+        <v>44252.95732732035</v>
       </c>
       <c r="I556" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -18217,10 +18492,10 @@
         <v>1383</v>
       </c>
       <c r="H557" s="2">
-        <v>44252.94708132782</v>
+        <v>44252.95732740118</v>
       </c>
       <c r="I557" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="558" spans="1:9">
@@ -18243,10 +18518,10 @@
         <v>1383</v>
       </c>
       <c r="H558" s="2">
-        <v>44252.94708135092</v>
+        <v>44252.95732744769</v>
       </c>
       <c r="I558" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="559" spans="1:9">
@@ -18266,10 +18541,10 @@
         <v>1383</v>
       </c>
       <c r="H559" s="2">
-        <v>44252.94708138553</v>
+        <v>44252.95732750504</v>
       </c>
       <c r="I559" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -18292,10 +18567,10 @@
         <v>1383</v>
       </c>
       <c r="H560" s="2">
-        <v>44252.94708142017</v>
+        <v>44252.95732756276</v>
       </c>
       <c r="I560" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="561" spans="1:9">
@@ -18318,10 +18593,10 @@
         <v>1383</v>
       </c>
       <c r="H561" s="2">
-        <v>44252.94708145493</v>
+        <v>44252.9573276205</v>
       </c>
       <c r="I561" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="562" spans="1:9">
@@ -18341,10 +18616,10 @@
         <v>1383</v>
       </c>
       <c r="H562" s="2">
-        <v>44252.94708148942</v>
+        <v>44252.9573276551</v>
       </c>
       <c r="I562" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="563" spans="1:9">
@@ -18364,10 +18639,10 @@
         <v>1383</v>
       </c>
       <c r="H563" s="2">
-        <v>44252.94708152406</v>
+        <v>44252.95732769019</v>
       </c>
       <c r="I563" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="564" spans="1:9">
@@ -18387,10 +18662,10 @@
         <v>1383</v>
       </c>
       <c r="H564" s="2">
-        <v>44252.94708154714</v>
+        <v>44252.95732772485</v>
       </c>
       <c r="I564" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="565" spans="1:9">
@@ -18413,10 +18688,10 @@
         <v>1383</v>
       </c>
       <c r="H565" s="2">
-        <v>44252.94708158177</v>
+        <v>44252.95732778222</v>
       </c>
       <c r="I565" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="566" spans="1:9">
@@ -18439,10 +18714,10 @@
         <v>1383</v>
       </c>
       <c r="H566" s="2">
-        <v>44252.9470816164</v>
+        <v>44252.95732782871</v>
       </c>
       <c r="I566" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="567" spans="1:9">
@@ -18465,10 +18740,10 @@
         <v>1383</v>
       </c>
       <c r="H567" s="2">
-        <v>44252.94708165103</v>
+        <v>44252.95732787444</v>
       </c>
       <c r="I567" s="2">
-        <v>43521.94707175926</v>
+        <v>43521.95732638889</v>
       </c>
     </row>
     <row r="568" spans="1:9">
@@ -18488,10 +18763,10 @@
         <v>1384</v>
       </c>
       <c r="H568" s="2">
-        <v>44252.94708168566</v>
+        <v>44252.95732793216</v>
       </c>
       <c r="I568" s="2">
-        <v>43156.94707175926</v>
+        <v>43156.95732638889</v>
       </c>
     </row>
     <row r="569" spans="1:9">
@@ -18511,10 +18786,10 @@
         <v>1384</v>
       </c>
       <c r="H569" s="2">
-        <v>44252.94708172029</v>
+        <v>44252.95732800142</v>
       </c>
       <c r="I569" s="2">
-        <v>43156.94707175926</v>
+        <v>43156.95732638889</v>
       </c>
     </row>
     <row r="570" spans="1:9">
@@ -18537,10 +18812,10 @@
         <v>1384</v>
       </c>
       <c r="H570" s="2">
-        <v>44252.94708175492</v>
+        <v>44252.9573280707</v>
       </c>
       <c r="I570" s="2">
-        <v>43156.94707175926</v>
+        <v>43156.95732638889</v>
       </c>
     </row>
     <row r="571" spans="1:9">
@@ -18560,10 +18835,10 @@
         <v>1384</v>
       </c>
       <c r="H571" s="2">
-        <v>44252.94708178955</v>
+        <v>44252.95732811694</v>
       </c>
       <c r="I571" s="2">
-        <v>43156.94707175926</v>
+        <v>43156.95732638889</v>
       </c>
     </row>
     <row r="572" spans="1:9">
@@ -18583,10 +18858,1014 @@
         <v>1384</v>
       </c>
       <c r="H572" s="2">
-        <v>44252.94708182418</v>
+        <v>44252.95732816303</v>
       </c>
       <c r="I572" s="2">
-        <v>43156.94707175926</v>
+        <v>43156.95732638889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44252.95901141983</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44250.95900462963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44252.95901145445</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44250.95900462963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44252.95901148907</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43915.95900462963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44252.95901152372</v>
+      </c>
+      <c r="I5" s="2">
+        <v>43915.95900462963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44252.95901155837</v>
+      </c>
+      <c r="I6" s="2">
+        <v>43915.95900462963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44252.95901160444</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43915.95900462963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44252.95901163919</v>
+      </c>
+      <c r="I8" s="2">
+        <v>43886.95900462963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44252.95901167324</v>
+      </c>
+      <c r="I9" s="2">
+        <v>43886.95900462963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44252.95932091662</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44249.95931712963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" t="s">
+        <v>935</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44252.95932097391</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44248.95931712963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44252.95932102054</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44248.95931712963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44252.95932105472</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44245.95931712963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44252.95932110133</v>
+      </c>
+      <c r="I6" s="2">
+        <v>44221.95931712963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44252.95932113553</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44221.95931712963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44252.95932119367</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44221.95931712963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44252.95932123992</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44160.95931712963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44252.95932128561</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44160.95931712963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" t="s">
+        <v>780</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44252.95932132065</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44160.95931712963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44252.9593213781</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44129.95931712963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44252.95932143585</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44099.95931712963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44252.95932148225</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44099.95931712963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44252.95932155108</v>
+      </c>
+      <c r="I15" s="2">
+        <v>44068.95931712963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44252.95932160893</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44037.95931712963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44252.95932165547</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44037.95931712963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44252.95932172424</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44037.95931712963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44252.95932180502</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44037.95931712963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44252.95932183964</v>
+      </c>
+      <c r="I20" s="2">
+        <v>43915.95931712963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44252.95932188582</v>
+      </c>
+      <c r="I21" s="2">
+        <v>43915.95931712963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44252.95932194354</v>
+      </c>
+      <c r="I22" s="2">
+        <v>43915.95931712963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44252.95932199017</v>
+      </c>
+      <c r="I23" s="2">
+        <v>43886.95931712963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44252.95932203643</v>
+      </c>
+      <c r="I24" s="2">
+        <v>43886.95931712963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44252.95932207051</v>
+      </c>
+      <c r="I25" s="2">
+        <v>43886.95931712963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44252.9593221167</v>
+      </c>
+      <c r="I26" s="2">
+        <v>43886.95931712963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44252.95932215183</v>
+      </c>
+      <c r="I27" s="2">
+        <v>43886.95931712963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44252.95932217492</v>
+      </c>
+      <c r="I28" s="2">
+        <v>43886.95931712963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44252.95932222105</v>
+      </c>
+      <c r="I29" s="2">
+        <v>43521.95931712963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44252.9593222442</v>
+      </c>
+      <c r="I30" s="2">
+        <v>43521.95931712963</v>
       </c>
     </row>
   </sheetData>
